--- a/outputs-HGR-r202/train-g__Agathobaculum_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Agathobaculum_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="643">
   <si>
     <t>Row</t>
   </si>
@@ -1186,6 +1188,765 @@
   </si>
   <si>
     <t>label_UMGS2030_96.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_15.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_16.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_3.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_8.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_10.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_16.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_4.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_5.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_97.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_7.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_72_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1639_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS351_6.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_0.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_12.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_24.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_50_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS682_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1825_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2030_95.fasta</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1967,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1220,11 +1981,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1232,6 +1997,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13556,4 +14325,8206 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J128"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="34.28515625" customWidth="true"/>
+    <col min="3" max="3" width="27.85546875" customWidth="true"/>
+    <col min="4" max="4" width="29.28515625" customWidth="true"/>
+    <col min="5" max="5" width="29.28515625" customWidth="true"/>
+    <col min="6" max="6" width="29.28515625" customWidth="true"/>
+    <col min="7" max="7" width="29.28515625" customWidth="true"/>
+    <col min="8" max="8" width="29.28515625" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2">
+        <v>0.67391613343487178</v>
+      </c>
+      <c r="C2">
+        <v>0.052961720261443357</v>
+      </c>
+      <c r="D2">
+        <v>0.01650776686688657</v>
+      </c>
+      <c r="E2">
+        <v>0.017885056099833849</v>
+      </c>
+      <c r="F2">
+        <v>0.0058187319317789497</v>
+      </c>
+      <c r="G2">
+        <v>0.039392271596184865</v>
+      </c>
+      <c r="H2">
+        <v>0.19351831980900064</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3">
+        <v>0.62173936378781292</v>
+      </c>
+      <c r="C3">
+        <v>0.033828047326040549</v>
+      </c>
+      <c r="D3">
+        <v>0.016683016698511115</v>
+      </c>
+      <c r="E3">
+        <v>0.037034241578112775</v>
+      </c>
+      <c r="F3">
+        <v>0.010992066816098213</v>
+      </c>
+      <c r="G3">
+        <v>0.1201681499475357</v>
+      </c>
+      <c r="H3">
+        <v>0.15955511384588875</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4">
+        <v>0.88163055298977988</v>
+      </c>
+      <c r="C4">
+        <v>0.041047493473178112</v>
+      </c>
+      <c r="D4">
+        <v>1.1021987009901813e-05</v>
+      </c>
+      <c r="E4">
+        <v>0.068929914429681091</v>
+      </c>
+      <c r="F4">
+        <v>2.6352151199453295e-05</v>
+      </c>
+      <c r="G4">
+        <v>0.0056392008742472167</v>
+      </c>
+      <c r="H4">
+        <v>0.0027154640949042445</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5">
+        <v>0.88835025434331016</v>
+      </c>
+      <c r="C5">
+        <v>0.010399995904349413</v>
+      </c>
+      <c r="D5">
+        <v>0.0040410352880008889</v>
+      </c>
+      <c r="E5">
+        <v>0.0065980149805875792</v>
+      </c>
+      <c r="F5">
+        <v>0.00044823182732007551</v>
+      </c>
+      <c r="G5">
+        <v>0.066229823066309618</v>
+      </c>
+      <c r="H5">
+        <v>0.023932644590122235</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6">
+        <v>0.021828984741904041</v>
+      </c>
+      <c r="C6">
+        <v>0.83519932433885702</v>
+      </c>
+      <c r="D6">
+        <v>5.7368282112068436e-06</v>
+      </c>
+      <c r="E6">
+        <v>0.13819084968475873</v>
+      </c>
+      <c r="F6">
+        <v>1.9435163891785896e-07</v>
+      </c>
+      <c r="G6">
+        <v>0.0044725371230532034</v>
+      </c>
+      <c r="H6">
+        <v>0.00030237293157689117</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7">
+        <v>0.0005285188352207018</v>
+      </c>
+      <c r="C7">
+        <v>0.98891759761840958</v>
+      </c>
+      <c r="D7">
+        <v>0.00010654879804252374</v>
+      </c>
+      <c r="E7">
+        <v>0.00089990251675887306</v>
+      </c>
+      <c r="F7">
+        <v>3.1619840874095459e-06</v>
+      </c>
+      <c r="G7">
+        <v>0.0083784147686632657</v>
+      </c>
+      <c r="H7">
+        <v>0.0011658554788175125</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8">
+        <v>0.0017085668162550947</v>
+      </c>
+      <c r="C8">
+        <v>0.97558198770178439</v>
+      </c>
+      <c r="D8">
+        <v>3.6318764203778607e-05</v>
+      </c>
+      <c r="E8">
+        <v>0.00099556511452649691</v>
+      </c>
+      <c r="F8">
+        <v>1.2560803578273876e-06</v>
+      </c>
+      <c r="G8">
+        <v>0.0027797069606221988</v>
+      </c>
+      <c r="H8">
+        <v>0.018896598562250164</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9">
+        <v>0.0018091948700532587</v>
+      </c>
+      <c r="C9">
+        <v>0.52467185817400352</v>
+      </c>
+      <c r="D9">
+        <v>2.8842803649867888e-05</v>
+      </c>
+      <c r="E9">
+        <v>0.0057325644979134361</v>
+      </c>
+      <c r="F9">
+        <v>1.873488993003816e-05</v>
+      </c>
+      <c r="G9">
+        <v>0.055026767752075559</v>
+      </c>
+      <c r="H9">
+        <v>0.41271203701237441</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10">
+        <v>0.0095908829411785208</v>
+      </c>
+      <c r="C10">
+        <v>0.96322654131850161</v>
+      </c>
+      <c r="D10">
+        <v>2.9606660125735847e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.010868699606037315</v>
+      </c>
+      <c r="F10">
+        <v>1.4498391675248542e-06</v>
+      </c>
+      <c r="G10">
+        <v>0.0031031995910401709</v>
+      </c>
+      <c r="H10">
+        <v>0.013179620043949059</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11">
+        <v>0.00068808985661832263</v>
+      </c>
+      <c r="C11">
+        <v>0.96323373634693787</v>
+      </c>
+      <c r="D11">
+        <v>4.5392180011526561e-05</v>
+      </c>
+      <c r="E11">
+        <v>0.0012503721559131156</v>
+      </c>
+      <c r="F11">
+        <v>0.00010098827942207126</v>
+      </c>
+      <c r="G11">
+        <v>0.0052877799730593218</v>
+      </c>
+      <c r="H11">
+        <v>0.029393641208037679</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>0.0010856249376222768</v>
+      </c>
+      <c r="C12">
+        <v>0.77027547702780141</v>
+      </c>
+      <c r="D12">
+        <v>0.0001230500054866846</v>
+      </c>
+      <c r="E12">
+        <v>0.0035390563984269083</v>
+      </c>
+      <c r="F12">
+        <v>0.00040788399799795045</v>
+      </c>
+      <c r="G12">
+        <v>0.15466450486825684</v>
+      </c>
+      <c r="H12">
+        <v>0.069904402764408125</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13">
+        <v>0.0017401688028034887</v>
+      </c>
+      <c r="C13">
+        <v>0.9220261676338215</v>
+      </c>
+      <c r="D13">
+        <v>1.6428988833466382e-05</v>
+      </c>
+      <c r="E13">
+        <v>0.0010588173451109456</v>
+      </c>
+      <c r="F13">
+        <v>1.3209656033040403e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.0019923757079013246</v>
+      </c>
+      <c r="H13">
+        <v>0.073152831865496135</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14">
+        <v>0.00033852556317059387</v>
+      </c>
+      <c r="C14">
+        <v>0.95364489857052392</v>
+      </c>
+      <c r="D14">
+        <v>6.4264803104499048e-05</v>
+      </c>
+      <c r="E14">
+        <v>0.0013928664770734194</v>
+      </c>
+      <c r="F14">
+        <v>2.4813628191998299e-06</v>
+      </c>
+      <c r="G14">
+        <v>0.040900784052501721</v>
+      </c>
+      <c r="H14">
+        <v>0.0036561791708067184</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15">
+        <v>0.0017101677627581956</v>
+      </c>
+      <c r="C15">
+        <v>0.31594418125618645</v>
+      </c>
+      <c r="D15">
+        <v>1.9291727903422622e-05</v>
+      </c>
+      <c r="E15">
+        <v>0.0014817113355400479</v>
+      </c>
+      <c r="F15">
+        <v>0.0004670306094486445</v>
+      </c>
+      <c r="G15">
+        <v>0.64959541483277339</v>
+      </c>
+      <c r="H15">
+        <v>0.030782202475389864</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16">
+        <v>0.012971263151875035</v>
+      </c>
+      <c r="C16">
+        <v>0.96667289702240744</v>
+      </c>
+      <c r="D16">
+        <v>7.1955737713320861e-06</v>
+      </c>
+      <c r="E16">
+        <v>0.0033819576233076834</v>
+      </c>
+      <c r="F16">
+        <v>1.2184310642604648e-07</v>
+      </c>
+      <c r="G16">
+        <v>0.0027071340289250389</v>
+      </c>
+      <c r="H16">
+        <v>0.014259430756607027</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17">
+        <v>0.01608767189286809</v>
+      </c>
+      <c r="C17">
+        <v>0.93777037723614232</v>
+      </c>
+      <c r="D17">
+        <v>3.6908755614732096e-06</v>
+      </c>
+      <c r="E17">
+        <v>0.01420768101639557</v>
+      </c>
+      <c r="F17">
+        <v>1.1913109935009465e-07</v>
+      </c>
+      <c r="G17">
+        <v>0.0060539147604558629</v>
+      </c>
+      <c r="H17">
+        <v>0.025876545087477405</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18">
+        <v>0.003892742431443357</v>
+      </c>
+      <c r="C18">
+        <v>0.97825035559635276</v>
+      </c>
+      <c r="D18">
+        <v>1.6098371999412696e-05</v>
+      </c>
+      <c r="E18">
+        <v>0.0025811711407805232</v>
+      </c>
+      <c r="F18">
+        <v>1.1993587464477095e-08</v>
+      </c>
+      <c r="G18">
+        <v>0.014382547344104216</v>
+      </c>
+      <c r="H18">
+        <v>0.00087707312173236445</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19">
+        <v>0.0071125197893700844</v>
+      </c>
+      <c r="C19">
+        <v>0.95317301427612056</v>
+      </c>
+      <c r="D19">
+        <v>3.2051684570249122e-05</v>
+      </c>
+      <c r="E19">
+        <v>0.0063859656391950462</v>
+      </c>
+      <c r="F19">
+        <v>4.1490641812315468e-06</v>
+      </c>
+      <c r="G19">
+        <v>0.026338276878333428</v>
+      </c>
+      <c r="H19">
+        <v>0.0069540226682292964</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20">
+        <v>0.013070911945369043</v>
+      </c>
+      <c r="C20">
+        <v>0.91983305102242752</v>
+      </c>
+      <c r="D20">
+        <v>1.0012154530810865e-05</v>
+      </c>
+      <c r="E20">
+        <v>0.0032086447818518173</v>
+      </c>
+      <c r="F20">
+        <v>1.1595087659402577e-07</v>
+      </c>
+      <c r="G20">
+        <v>0.012076410717460552</v>
+      </c>
+      <c r="H20">
+        <v>0.051800853427483716</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21">
+        <v>0.010153524915973674</v>
+      </c>
+      <c r="C21">
+        <v>0.8989401919109975</v>
+      </c>
+      <c r="D21">
+        <v>2.6643034527021555e-06</v>
+      </c>
+      <c r="E21">
+        <v>0.00032980523594852728</v>
+      </c>
+      <c r="F21">
+        <v>1.118814027353485e-06</v>
+      </c>
+      <c r="G21">
+        <v>0.008026989342757921</v>
+      </c>
+      <c r="H21">
+        <v>0.082545705476842438</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22">
+        <v>0.0082053842967760322</v>
+      </c>
+      <c r="C22">
+        <v>0.84506393493318566</v>
+      </c>
+      <c r="D22">
+        <v>6.6343118239945229e-06</v>
+      </c>
+      <c r="E22">
+        <v>0.017106180535580263</v>
+      </c>
+      <c r="F22">
+        <v>7.9192491991868427e-07</v>
+      </c>
+      <c r="G22">
+        <v>0.06088892528320395</v>
+      </c>
+      <c r="H22">
+        <v>0.068728148714510259</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23">
+        <v>0.0047604657012840553</v>
+      </c>
+      <c r="C23">
+        <v>0.97154843669943913</v>
+      </c>
+      <c r="D23">
+        <v>4.7470924008111012e-06</v>
+      </c>
+      <c r="E23">
+        <v>0.011633087075661326</v>
+      </c>
+      <c r="F23">
+        <v>4.3891380237558531e-08</v>
+      </c>
+      <c r="G23">
+        <v>0.0042849415084842283</v>
+      </c>
+      <c r="H23">
+        <v>0.0077682780313501759</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24">
+        <v>0.0038304333278033655</v>
+      </c>
+      <c r="C24">
+        <v>0.81697866425158983</v>
+      </c>
+      <c r="D24">
+        <v>1.2134091832906074e-05</v>
+      </c>
+      <c r="E24">
+        <v>0.0088575076169191067</v>
+      </c>
+      <c r="F24">
+        <v>1.1595576399263686e-06</v>
+      </c>
+      <c r="G24">
+        <v>0.0021925450495153122</v>
+      </c>
+      <c r="H24">
+        <v>0.16812755610469968</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25">
+        <v>0.0094894826783524754</v>
+      </c>
+      <c r="C25">
+        <v>0.93097412272129709</v>
+      </c>
+      <c r="D25">
+        <v>2.4493515614293734e-06</v>
+      </c>
+      <c r="E25">
+        <v>0.0019839778329913127</v>
+      </c>
+      <c r="F25">
+        <v>9.6976812191609969e-07</v>
+      </c>
+      <c r="G25">
+        <v>0.0066706784951860677</v>
+      </c>
+      <c r="H25">
+        <v>0.050878319152489714</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26">
+        <v>0.095204415193292924</v>
+      </c>
+      <c r="C26">
+        <v>0.52346669435733906</v>
+      </c>
+      <c r="D26">
+        <v>7.8877185942550766e-06</v>
+      </c>
+      <c r="E26">
+        <v>0.26422806629966344</v>
+      </c>
+      <c r="F26">
+        <v>7.3641208930985934e-07</v>
+      </c>
+      <c r="G26">
+        <v>0.043990256679596051</v>
+      </c>
+      <c r="H26">
+        <v>0.073101943339424963</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27">
+        <v>0.0051228990428472893</v>
+      </c>
+      <c r="C27">
+        <v>0.99033225440001171</v>
+      </c>
+      <c r="D27">
+        <v>1.0747203422032229e-05</v>
+      </c>
+      <c r="E27">
+        <v>0.0025125688498377928</v>
+      </c>
+      <c r="F27">
+        <v>2.4815614607037352e-09</v>
+      </c>
+      <c r="G27">
+        <v>0.00080467178387930898</v>
+      </c>
+      <c r="H27">
+        <v>0.0012168562384405411</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28">
+        <v>0.0037278197679328148</v>
+      </c>
+      <c r="C28">
+        <v>0.98515533571012348</v>
+      </c>
+      <c r="D28">
+        <v>1.5629640446119656e-05</v>
+      </c>
+      <c r="E28">
+        <v>0.00071415807661717615</v>
+      </c>
+      <c r="F28">
+        <v>1.2311136088800814e-06</v>
+      </c>
+      <c r="G28">
+        <v>0.0023808278221560323</v>
+      </c>
+      <c r="H28">
+        <v>0.0080049978691155519</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29">
+        <v>0.002061167442197248</v>
+      </c>
+      <c r="C29">
+        <v>0.92744103132619105</v>
+      </c>
+      <c r="D29">
+        <v>6.0387821048024409e-06</v>
+      </c>
+      <c r="E29">
+        <v>0.0013001921040553788</v>
+      </c>
+      <c r="F29">
+        <v>2.3088121120651392e-07</v>
+      </c>
+      <c r="G29">
+        <v>0.052484896267027382</v>
+      </c>
+      <c r="H29">
+        <v>0.016706443197212949</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30">
+        <v>0.003935016529032262</v>
+      </c>
+      <c r="C30">
+        <v>0.94982918417700035</v>
+      </c>
+      <c r="D30">
+        <v>1.759349280096438e-06</v>
+      </c>
+      <c r="E30">
+        <v>0.00080237663869208863</v>
+      </c>
+      <c r="F30">
+        <v>5.0659080729747686e-07</v>
+      </c>
+      <c r="G30">
+        <v>0.04448308557596907</v>
+      </c>
+      <c r="H30">
+        <v>0.00094807113921863292</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31">
+        <v>0.00074963397646754602</v>
+      </c>
+      <c r="C31">
+        <v>0.75685458922014204</v>
+      </c>
+      <c r="D31">
+        <v>6.7894634933559625e-05</v>
+      </c>
+      <c r="E31">
+        <v>0.0025149206329261493</v>
+      </c>
+      <c r="F31">
+        <v>2.4752521492037993e-06</v>
+      </c>
+      <c r="G31">
+        <v>0.23190737503805456</v>
+      </c>
+      <c r="H31">
+        <v>0.0079031112453269194</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32">
+        <v>0.00082366117943084534</v>
+      </c>
+      <c r="C32">
+        <v>0.97219835180001735</v>
+      </c>
+      <c r="D32">
+        <v>3.9237653016364517e-05</v>
+      </c>
+      <c r="E32">
+        <v>0.0016036507431692495</v>
+      </c>
+      <c r="F32">
+        <v>6.3900201388460892e-06</v>
+      </c>
+      <c r="G32">
+        <v>0.014120362227632789</v>
+      </c>
+      <c r="H32">
+        <v>0.01120834637659464</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33">
+        <v>0.00085607434776012947</v>
+      </c>
+      <c r="C33">
+        <v>0.89598402519884035</v>
+      </c>
+      <c r="D33">
+        <v>6.673493891510426e-06</v>
+      </c>
+      <c r="E33">
+        <v>0.0023004770927065399</v>
+      </c>
+      <c r="F33">
+        <v>1.9888675130256078e-06</v>
+      </c>
+      <c r="G33">
+        <v>0.091929703836923213</v>
+      </c>
+      <c r="H33">
+        <v>0.0089210571623650047</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34">
+        <v>0.0019432700052210419</v>
+      </c>
+      <c r="C34">
+        <v>0.97706232743207344</v>
+      </c>
+      <c r="D34">
+        <v>2.5889693967941423e-05</v>
+      </c>
+      <c r="E34">
+        <v>0.00054893486536201029</v>
+      </c>
+      <c r="F34">
+        <v>2.6239962908722722e-05</v>
+      </c>
+      <c r="G34">
+        <v>0.0089598174595350265</v>
+      </c>
+      <c r="H34">
+        <v>0.011433520580931772</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35">
+        <v>0.00092114791779149285</v>
+      </c>
+      <c r="C35">
+        <v>0.75591334773510899</v>
+      </c>
+      <c r="D35">
+        <v>0.00013967504839259304</v>
+      </c>
+      <c r="E35">
+        <v>0.0068453535147984731</v>
+      </c>
+      <c r="F35">
+        <v>0.00036072208059332038</v>
+      </c>
+      <c r="G35">
+        <v>0.20701968783010702</v>
+      </c>
+      <c r="H35">
+        <v>0.028800065873208047</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36">
+        <v>0.0007970515813373318</v>
+      </c>
+      <c r="C36">
+        <v>8.3398804335135992e-08</v>
+      </c>
+      <c r="D36">
+        <v>0.9883797961202575</v>
+      </c>
+      <c r="E36">
+        <v>0.010573231647980358</v>
+      </c>
+      <c r="F36">
+        <v>1.2649616153247998e-07</v>
+      </c>
+      <c r="G36">
+        <v>0.00022278492178598461</v>
+      </c>
+      <c r="H36">
+        <v>2.6925833673183571e-05</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37">
+        <v>0.00071451053072620681</v>
+      </c>
+      <c r="C37">
+        <v>9.0513089390302126e-07</v>
+      </c>
+      <c r="D37">
+        <v>0.98811723587158362</v>
+      </c>
+      <c r="E37">
+        <v>0.010387108157414742</v>
+      </c>
+      <c r="F37">
+        <v>0.00011489802571815919</v>
+      </c>
+      <c r="G37">
+        <v>0.00059434238295662744</v>
+      </c>
+      <c r="H37">
+        <v>7.0999900706746752e-05</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38">
+        <v>0.00026417002571560362</v>
+      </c>
+      <c r="C38">
+        <v>1.9369331330607266e-06</v>
+      </c>
+      <c r="D38">
+        <v>0.96064109470970793</v>
+      </c>
+      <c r="E38">
+        <v>0.0013626740807761496</v>
+      </c>
+      <c r="F38">
+        <v>5.4066908750829864e-08</v>
+      </c>
+      <c r="G38">
+        <v>0.037592352158507987</v>
+      </c>
+      <c r="H38">
+        <v>0.00013771802525041965</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39">
+        <v>0.0014347208922683501</v>
+      </c>
+      <c r="C39">
+        <v>3.5694139440921802e-05</v>
+      </c>
+      <c r="D39">
+        <v>0.90505838825987639</v>
+      </c>
+      <c r="E39">
+        <v>0.00096341759858371151</v>
+      </c>
+      <c r="F39">
+        <v>0.059290534988448371</v>
+      </c>
+      <c r="G39">
+        <v>0.033180726613731094</v>
+      </c>
+      <c r="H39">
+        <v>3.651750765115797e-05</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40">
+        <v>0.016625444567716172</v>
+      </c>
+      <c r="C40">
+        <v>5.1530918467586426e-06</v>
+      </c>
+      <c r="D40">
+        <v>0.97003591495437569</v>
+      </c>
+      <c r="E40">
+        <v>0.0025243160941998684</v>
+      </c>
+      <c r="F40">
+        <v>9.7725104654020609e-07</v>
+      </c>
+      <c r="G40">
+        <v>0.010644740355856282</v>
+      </c>
+      <c r="H40">
+        <v>0.00016345368495860349</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41">
+        <v>9.5867740103031807e-05</v>
+      </c>
+      <c r="C41">
+        <v>8.5640384297892459e-07</v>
+      </c>
+      <c r="D41">
+        <v>0.97765496033517374</v>
+      </c>
+      <c r="E41">
+        <v>0.00051390978863156641</v>
+      </c>
+      <c r="F41">
+        <v>2.4906000776696055e-06</v>
+      </c>
+      <c r="G41">
+        <v>0.021710887250068252</v>
+      </c>
+      <c r="H41">
+        <v>2.1027882102856325e-05</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42">
+        <v>3.9881820953359621e-05</v>
+      </c>
+      <c r="C42">
+        <v>8.0678062415473806e-09</v>
+      </c>
+      <c r="D42">
+        <v>0.99656592359840845</v>
+      </c>
+      <c r="E42">
+        <v>0.00095817284808690623</v>
+      </c>
+      <c r="F42">
+        <v>2.2626202975036023e-09</v>
+      </c>
+      <c r="G42">
+        <v>0.0023513103082741099</v>
+      </c>
+      <c r="H42">
+        <v>8.4701093850685213e-05</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43">
+        <v>6.2055328193105221e-05</v>
+      </c>
+      <c r="C43">
+        <v>3.1951544342955034e-07</v>
+      </c>
+      <c r="D43">
+        <v>0.9932589011265609</v>
+      </c>
+      <c r="E43">
+        <v>0.0054998868892497587</v>
+      </c>
+      <c r="F43">
+        <v>4.8705962170911038e-07</v>
+      </c>
+      <c r="G43">
+        <v>0.0009155719604971072</v>
+      </c>
+      <c r="H43">
+        <v>0.00026277812043398957</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44">
+        <v>0.0001414106103873542</v>
+      </c>
+      <c r="C44">
+        <v>2.8413045426185517e-06</v>
+      </c>
+      <c r="D44">
+        <v>0.99123282899507892</v>
+      </c>
+      <c r="E44">
+        <v>0.004886132564898572</v>
+      </c>
+      <c r="F44">
+        <v>0.0001670480780283697</v>
+      </c>
+      <c r="G44">
+        <v>0.0022295395076984861</v>
+      </c>
+      <c r="H44">
+        <v>0.0013401989393657819</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45">
+        <v>0.00022741126457519946</v>
+      </c>
+      <c r="C45">
+        <v>1.5432717771218849e-07</v>
+      </c>
+      <c r="D45">
+        <v>0.99419818559216377</v>
+      </c>
+      <c r="E45">
+        <v>0.0054685236559489708</v>
+      </c>
+      <c r="F45">
+        <v>2.3309544180089216e-06</v>
+      </c>
+      <c r="G45">
+        <v>4.5808013739286028e-05</v>
+      </c>
+      <c r="H45">
+        <v>5.7586191977327285e-05</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46">
+        <v>0.00039298508436738926</v>
+      </c>
+      <c r="C46">
+        <v>1.3556031721759288e-07</v>
+      </c>
+      <c r="D46">
+        <v>0.98567715470821948</v>
+      </c>
+      <c r="E46">
+        <v>0.011696782315661965</v>
+      </c>
+      <c r="F46">
+        <v>3.8021769488002482e-09</v>
+      </c>
+      <c r="G46">
+        <v>0.0022100787064252875</v>
+      </c>
+      <c r="H46">
+        <v>2.2859822831619348e-05</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47">
+        <v>0.00086796888823609188</v>
+      </c>
+      <c r="C47">
+        <v>9.273360394740175e-07</v>
+      </c>
+      <c r="D47">
+        <v>0.99554972787770146</v>
+      </c>
+      <c r="E47">
+        <v>0.0030151727220008727</v>
+      </c>
+      <c r="F47">
+        <v>2.4380941411588774e-05</v>
+      </c>
+      <c r="G47">
+        <v>0.00052643584093832495</v>
+      </c>
+      <c r="H47">
+        <v>1.538639367217072e-05</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48">
+        <v>0.048503633212928152</v>
+      </c>
+      <c r="C48">
+        <v>0.011440749037323703</v>
+      </c>
+      <c r="D48">
+        <v>0.00011057393242001545</v>
+      </c>
+      <c r="E48">
+        <v>0.91517492147284352</v>
+      </c>
+      <c r="F48">
+        <v>3.735244151869985e-09</v>
+      </c>
+      <c r="G48">
+        <v>0.022619959522840263</v>
+      </c>
+      <c r="H48">
+        <v>0.0021501590864001652</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49">
+        <v>0.030071255990808947</v>
+      </c>
+      <c r="C49">
+        <v>0.016396840654416503</v>
+      </c>
+      <c r="D49">
+        <v>0.0011052718688483833</v>
+      </c>
+      <c r="E49">
+        <v>0.84594368655481689</v>
+      </c>
+      <c r="F49">
+        <v>7.0892190620496657e-08</v>
+      </c>
+      <c r="G49">
+        <v>0.060104532129125754</v>
+      </c>
+      <c r="H49">
+        <v>0.046378341909792731</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50">
+        <v>0.013607819594457603</v>
+      </c>
+      <c r="C50">
+        <v>0.00033764658720202332</v>
+      </c>
+      <c r="D50">
+        <v>0.00011098831542097377</v>
+      </c>
+      <c r="E50">
+        <v>0.96886857127413262</v>
+      </c>
+      <c r="F50">
+        <v>5.2120462209893793e-09</v>
+      </c>
+      <c r="G50">
+        <v>0.0015707367387254665</v>
+      </c>
+      <c r="H50">
+        <v>0.015504232278015055</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51">
+        <v>0.029049852834621144</v>
+      </c>
+      <c r="C51">
+        <v>0.00019013236322714121</v>
+      </c>
+      <c r="D51">
+        <v>0.004730761522689076</v>
+      </c>
+      <c r="E51">
+        <v>0.96035014037402422</v>
+      </c>
+      <c r="F51">
+        <v>7.6926767842399862e-08</v>
+      </c>
+      <c r="G51">
+        <v>0.0020529984356596424</v>
+      </c>
+      <c r="H51">
+        <v>0.003626037543010956</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52">
+        <v>0.0016361388661154863</v>
+      </c>
+      <c r="C52">
+        <v>0.00024795429825189279</v>
+      </c>
+      <c r="D52">
+        <v>0.000487577137350556</v>
+      </c>
+      <c r="E52">
+        <v>0.98128174217561193</v>
+      </c>
+      <c r="F52">
+        <v>2.4665088434273155e-09</v>
+      </c>
+      <c r="G52">
+        <v>0.0035117106021455126</v>
+      </c>
+      <c r="H52">
+        <v>0.012834874454015859</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53">
+        <v>0.0020233607793942311</v>
+      </c>
+      <c r="C53">
+        <v>1.1333374762183422e-06</v>
+      </c>
+      <c r="D53">
+        <v>0.0030681904382528044</v>
+      </c>
+      <c r="E53">
+        <v>0.0062771868841977694</v>
+      </c>
+      <c r="F53">
+        <v>0.98782977728571675</v>
+      </c>
+      <c r="G53">
+        <v>3.0720506748260869e-06</v>
+      </c>
+      <c r="H53">
+        <v>0.00079727922428760793</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54">
+        <v>0.00030747790165852227</v>
+      </c>
+      <c r="C54">
+        <v>0.0035893428156553325</v>
+      </c>
+      <c r="D54">
+        <v>0.00034066177520308615</v>
+      </c>
+      <c r="E54">
+        <v>0.0012659154710200264</v>
+      </c>
+      <c r="F54">
+        <v>0.98610078938369494</v>
+      </c>
+      <c r="G54">
+        <v>0.0053981947103700764</v>
+      </c>
+      <c r="H54">
+        <v>0.0029976179423980469</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55">
+        <v>0.00022115499737988635</v>
+      </c>
+      <c r="C55">
+        <v>0.00056203602565062173</v>
+      </c>
+      <c r="D55">
+        <v>0.0024883884023434622</v>
+      </c>
+      <c r="E55">
+        <v>0.0016455763765846913</v>
+      </c>
+      <c r="F55">
+        <v>0.98747328679432878</v>
+      </c>
+      <c r="G55">
+        <v>0.0016373679938226247</v>
+      </c>
+      <c r="H55">
+        <v>0.0059721894098900986</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56">
+        <v>0.00022355147770654197</v>
+      </c>
+      <c r="C56">
+        <v>0.0015650170126161069</v>
+      </c>
+      <c r="D56">
+        <v>0.00010819196405941416</v>
+      </c>
+      <c r="E56">
+        <v>0.0012696244690533277</v>
+      </c>
+      <c r="F56">
+        <v>0.98921315029330681</v>
+      </c>
+      <c r="G56">
+        <v>0.0044356982686254535</v>
+      </c>
+      <c r="H56">
+        <v>0.0031847665146324481</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57">
+        <v>0.00034333822546869276</v>
+      </c>
+      <c r="C57">
+        <v>0.00052203912158152661</v>
+      </c>
+      <c r="D57">
+        <v>0.0021346499495455908</v>
+      </c>
+      <c r="E57">
+        <v>0.0017406545937327595</v>
+      </c>
+      <c r="F57">
+        <v>0.96720389530680584</v>
+      </c>
+      <c r="G57">
+        <v>0.0097904450221166089</v>
+      </c>
+      <c r="H57">
+        <v>0.018264977780748967</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58">
+        <v>0.00019177672981107486</v>
+      </c>
+      <c r="C58">
+        <v>0.00087291908175196338</v>
+      </c>
+      <c r="D58">
+        <v>0.0003548586281238349</v>
+      </c>
+      <c r="E58">
+        <v>0.0016453500429445722</v>
+      </c>
+      <c r="F58">
+        <v>0.96613837197642127</v>
+      </c>
+      <c r="G58">
+        <v>0.029142995275492824</v>
+      </c>
+      <c r="H58">
+        <v>0.0016537282654543264</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59">
+        <v>0.00025342826299453748</v>
+      </c>
+      <c r="C59">
+        <v>0.0011117375790123554</v>
+      </c>
+      <c r="D59">
+        <v>0.00011983781855655968</v>
+      </c>
+      <c r="E59">
+        <v>0.0016867145681948587</v>
+      </c>
+      <c r="F59">
+        <v>0.97829985886020909</v>
+      </c>
+      <c r="G59">
+        <v>0.0027299033330300351</v>
+      </c>
+      <c r="H59">
+        <v>0.015798519578002504</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B60">
+        <v>0.00082319684466034817</v>
+      </c>
+      <c r="C60">
+        <v>1.5948886486247699e-06</v>
+      </c>
+      <c r="D60">
+        <v>0.0032575974161815537</v>
+      </c>
+      <c r="E60">
+        <v>0.008046825232196483</v>
+      </c>
+      <c r="F60">
+        <v>0.98645653776664821</v>
+      </c>
+      <c r="G60">
+        <v>9.8298562650413697e-06</v>
+      </c>
+      <c r="H60">
+        <v>0.0014044179953996889</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61">
+        <v>0.0042708114098571389</v>
+      </c>
+      <c r="C61">
+        <v>1.6859255961328652e-05</v>
+      </c>
+      <c r="D61">
+        <v>0.00071406483250978836</v>
+      </c>
+      <c r="E61">
+        <v>0.0029734801254646497</v>
+      </c>
+      <c r="F61">
+        <v>0.99067306391264187</v>
+      </c>
+      <c r="G61">
+        <v>1.6018465176598445e-05</v>
+      </c>
+      <c r="H61">
+        <v>0.0013357019983885896</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62">
+        <v>0.010918601129142062</v>
+      </c>
+      <c r="C62">
+        <v>6.0051102255002302e-05</v>
+      </c>
+      <c r="D62">
+        <v>0.00069733118540832566</v>
+      </c>
+      <c r="E62">
+        <v>0.00066481220126049696</v>
+      </c>
+      <c r="F62">
+        <v>0.98472251967162916</v>
+      </c>
+      <c r="G62">
+        <v>0.0001950089709828479</v>
+      </c>
+      <c r="H62">
+        <v>0.0027416757393221368</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63">
+        <v>0.0003289738775673521</v>
+      </c>
+      <c r="C63">
+        <v>2.6136767221949778e-06</v>
+      </c>
+      <c r="D63">
+        <v>0.00017697975352300307</v>
+      </c>
+      <c r="E63">
+        <v>0.0024312464526531343</v>
+      </c>
+      <c r="F63">
+        <v>0.99391668143818324</v>
+      </c>
+      <c r="G63">
+        <v>4.7033360951112219e-06</v>
+      </c>
+      <c r="H63">
+        <v>0.0031388014652559693</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64">
+        <v>0.043423981851958629</v>
+      </c>
+      <c r="C64">
+        <v>0.0085298406871946505</v>
+      </c>
+      <c r="D64">
+        <v>3.9454606418979958e-05</v>
+      </c>
+      <c r="E64">
+        <v>0.0011718992971356771</v>
+      </c>
+      <c r="F64">
+        <v>0.92769042868851914</v>
+      </c>
+      <c r="G64">
+        <v>0.0043968199094695046</v>
+      </c>
+      <c r="H64">
+        <v>0.014747574959303509</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65">
+        <v>0.002904103241950875</v>
+      </c>
+      <c r="C65">
+        <v>2.5200110614164264e-05</v>
+      </c>
+      <c r="D65">
+        <v>0.047868403958312392</v>
+      </c>
+      <c r="E65">
+        <v>0.0017852748509119443</v>
+      </c>
+      <c r="F65">
+        <v>0.93591457467942241</v>
+      </c>
+      <c r="G65">
+        <v>0.0015785570787058979</v>
+      </c>
+      <c r="H65">
+        <v>0.0099238860800822375</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66">
+        <v>0.00052299254418806842</v>
+      </c>
+      <c r="C66">
+        <v>2.9917813571152486e-05</v>
+      </c>
+      <c r="D66">
+        <v>5.1045033298574825e-05</v>
+      </c>
+      <c r="E66">
+        <v>0.0007132128155501571</v>
+      </c>
+      <c r="F66">
+        <v>0.9949418716321925</v>
+      </c>
+      <c r="G66">
+        <v>0.00068686133699347521</v>
+      </c>
+      <c r="H66">
+        <v>0.0030540988242060371</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67">
+        <v>9.8405444820026127e-05</v>
+      </c>
+      <c r="C67">
+        <v>1.75948494771348e-06</v>
+      </c>
+      <c r="D67">
+        <v>0.00015158281683192468</v>
+      </c>
+      <c r="E67">
+        <v>0.0040675449653137501</v>
+      </c>
+      <c r="F67">
+        <v>0.99223163717132001</v>
+      </c>
+      <c r="G67">
+        <v>6.8148548432871327e-06</v>
+      </c>
+      <c r="H67">
+        <v>0.0034422552619232378</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68">
+        <v>0.0021732321350438084</v>
+      </c>
+      <c r="C68">
+        <v>0.0010315139602884566</v>
+      </c>
+      <c r="D68">
+        <v>0.00118798062902235</v>
+      </c>
+      <c r="E68">
+        <v>0.0011151382297861312</v>
+      </c>
+      <c r="F68">
+        <v>0.98548712748853962</v>
+      </c>
+      <c r="G68">
+        <v>0.0037503274219471174</v>
+      </c>
+      <c r="H68">
+        <v>0.005254680135372552</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69">
+        <v>4.2834523761502746e-05</v>
+      </c>
+      <c r="C69">
+        <v>5.3210400321470514e-07</v>
+      </c>
+      <c r="D69">
+        <v>0.00012998650695344221</v>
+      </c>
+      <c r="E69">
+        <v>0.00071451519792969118</v>
+      </c>
+      <c r="F69">
+        <v>0.99394642985476078</v>
+      </c>
+      <c r="G69">
+        <v>9.1474489874600996e-06</v>
+      </c>
+      <c r="H69">
+        <v>0.0051565543636038795</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70">
+        <v>0.0023184723061621345</v>
+      </c>
+      <c r="C70">
+        <v>0.0017558330810611312</v>
+      </c>
+      <c r="D70">
+        <v>0.00035954016218071134</v>
+      </c>
+      <c r="E70">
+        <v>0.00078307274397763124</v>
+      </c>
+      <c r="F70">
+        <v>0.98180458551262229</v>
+      </c>
+      <c r="G70">
+        <v>0.0019704715265703105</v>
+      </c>
+      <c r="H70">
+        <v>0.011008024667425871</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71">
+        <v>0.00033128451343395675</v>
+      </c>
+      <c r="C71">
+        <v>6.486608620871413e-05</v>
+      </c>
+      <c r="D71">
+        <v>0.0016247948231297772</v>
+      </c>
+      <c r="E71">
+        <v>0.0015376864756126601</v>
+      </c>
+      <c r="F71">
+        <v>0.93370585484819058</v>
+      </c>
+      <c r="G71">
+        <v>0.0010072545823227397</v>
+      </c>
+      <c r="H71">
+        <v>0.061728258671101641</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72">
+        <v>5.1673908851570932e-05</v>
+      </c>
+      <c r="C72">
+        <v>2.5133017855740014e-05</v>
+      </c>
+      <c r="D72">
+        <v>1.3692851060800089e-05</v>
+      </c>
+      <c r="E72">
+        <v>0.0030985125863378571</v>
+      </c>
+      <c r="F72">
+        <v>0.95501469447957266</v>
+      </c>
+      <c r="G72">
+        <v>1.1867754519517276e-05</v>
+      </c>
+      <c r="H72">
+        <v>0.041784425401801779</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73">
+        <v>0.00032868166704238806</v>
+      </c>
+      <c r="C73">
+        <v>0.00025032961426694046</v>
+      </c>
+      <c r="D73">
+        <v>0.00059739910895128363</v>
+      </c>
+      <c r="E73">
+        <v>0.0013379160991887139</v>
+      </c>
+      <c r="F73">
+        <v>0.99384052083691465</v>
+      </c>
+      <c r="G73">
+        <v>0.0021621941920471127</v>
+      </c>
+      <c r="H73">
+        <v>0.0014829584815889225</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74">
+        <v>7.0826374391341309e-05</v>
+      </c>
+      <c r="C74">
+        <v>1.4611325854295887e-05</v>
+      </c>
+      <c r="D74">
+        <v>0.03475187142621803</v>
+      </c>
+      <c r="E74">
+        <v>0.00071956459520199491</v>
+      </c>
+      <c r="F74">
+        <v>0.96307727933875864</v>
+      </c>
+      <c r="G74">
+        <v>0.0010374430895784918</v>
+      </c>
+      <c r="H74">
+        <v>0.00032840384999714451</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B75">
+        <v>0.00016774985285417573</v>
+      </c>
+      <c r="C75">
+        <v>4.5163318177168038e-05</v>
+      </c>
+      <c r="D75">
+        <v>0.00031605203701134656</v>
+      </c>
+      <c r="E75">
+        <v>0.00081435726553495051</v>
+      </c>
+      <c r="F75">
+        <v>0.98422804618723514</v>
+      </c>
+      <c r="G75">
+        <v>0.00066243187443599746</v>
+      </c>
+      <c r="H75">
+        <v>0.013766199464751378</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B76">
+        <v>0.00039186174691903364</v>
+      </c>
+      <c r="C76">
+        <v>0.00045716076862289858</v>
+      </c>
+      <c r="D76">
+        <v>0.00059511731394043402</v>
+      </c>
+      <c r="E76">
+        <v>0.001044171647041744</v>
+      </c>
+      <c r="F76">
+        <v>7.0053109385388173e-05</v>
+      </c>
+      <c r="G76">
+        <v>0.70048794888648336</v>
+      </c>
+      <c r="H76">
+        <v>0.29695368652760706</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77">
+        <v>0.0036734146822533088</v>
+      </c>
+      <c r="C77">
+        <v>7.022896943342536e-05</v>
+      </c>
+      <c r="D77">
+        <v>0.0016541157636057457</v>
+      </c>
+      <c r="E77">
+        <v>6.3274540559058579e-05</v>
+      </c>
+      <c r="F77">
+        <v>0.0018586316436328654</v>
+      </c>
+      <c r="G77">
+        <v>0.82717431842754241</v>
+      </c>
+      <c r="H77">
+        <v>0.16550601597297318</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78">
+        <v>0.0013006943378929476</v>
+      </c>
+      <c r="C78">
+        <v>0.0033512751136459073</v>
+      </c>
+      <c r="D78">
+        <v>0.0066443689885383418</v>
+      </c>
+      <c r="E78">
+        <v>0.0052243237118349915</v>
+      </c>
+      <c r="F78">
+        <v>0.0001644029604826291</v>
+      </c>
+      <c r="G78">
+        <v>0.64303999723893035</v>
+      </c>
+      <c r="H78">
+        <v>0.34027493764867478</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79">
+        <v>0.0067809154631177848</v>
+      </c>
+      <c r="C79">
+        <v>3.9604216354036019e-06</v>
+      </c>
+      <c r="D79">
+        <v>0.0034699953660016652</v>
+      </c>
+      <c r="E79">
+        <v>0.000226465818135128</v>
+      </c>
+      <c r="F79">
+        <v>0.0011811934417322761</v>
+      </c>
+      <c r="G79">
+        <v>0.93562159609900541</v>
+      </c>
+      <c r="H79">
+        <v>0.052715873390372391</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80">
+        <v>0.0083463204702468406</v>
+      </c>
+      <c r="C80">
+        <v>0.71196579787801606</v>
+      </c>
+      <c r="D80">
+        <v>0.00012682940658719126</v>
+      </c>
+      <c r="E80">
+        <v>0.048132677395002037</v>
+      </c>
+      <c r="F80">
+        <v>4.4808767014270527e-05</v>
+      </c>
+      <c r="G80">
+        <v>0.10644366197338503</v>
+      </c>
+      <c r="H80">
+        <v>0.12493990410974853</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81">
+        <v>0.0038066327491019297</v>
+      </c>
+      <c r="C81">
+        <v>0.068990170484391627</v>
+      </c>
+      <c r="D81">
+        <v>1.3703218424039641e-05</v>
+      </c>
+      <c r="E81">
+        <v>0.010370172638177787</v>
+      </c>
+      <c r="F81">
+        <v>0.0021445622903676111</v>
+      </c>
+      <c r="G81">
+        <v>0.82967069281841677</v>
+      </c>
+      <c r="H81">
+        <v>0.085004065801120382</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82">
+        <v>0.00057419454969334161</v>
+      </c>
+      <c r="C82">
+        <v>0.00065966053304082433</v>
+      </c>
+      <c r="D82">
+        <v>0.0019767441505298012</v>
+      </c>
+      <c r="E82">
+        <v>0.0014303833594085506</v>
+      </c>
+      <c r="F82">
+        <v>1.8325556297324451e-05</v>
+      </c>
+      <c r="G82">
+        <v>0.94888159989994358</v>
+      </c>
+      <c r="H82">
+        <v>0.046459091951086585</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B83">
+        <v>0.0018803295809124538</v>
+      </c>
+      <c r="C83">
+        <v>0.0083547563032707745</v>
+      </c>
+      <c r="D83">
+        <v>4.8631293855497052e-06</v>
+      </c>
+      <c r="E83">
+        <v>0.0024826128597569309</v>
+      </c>
+      <c r="F83">
+        <v>0.0015190547965339806</v>
+      </c>
+      <c r="G83">
+        <v>0.50965993342194849</v>
+      </c>
+      <c r="H83">
+        <v>0.47609844990819167</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84">
+        <v>0.00047098422974353168</v>
+      </c>
+      <c r="C84">
+        <v>0.00051507720051853815</v>
+      </c>
+      <c r="D84">
+        <v>0.0016055537079338314</v>
+      </c>
+      <c r="E84">
+        <v>0.001504553693255753</v>
+      </c>
+      <c r="F84">
+        <v>2.696840048977543e-05</v>
+      </c>
+      <c r="G84">
+        <v>0.79522332962128128</v>
+      </c>
+      <c r="H84">
+        <v>0.20065353314677722</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85">
+        <v>0.00028100680681901111</v>
+      </c>
+      <c r="C85">
+        <v>0.00073857734780731845</v>
+      </c>
+      <c r="D85">
+        <v>0.0012435484979402417</v>
+      </c>
+      <c r="E85">
+        <v>0.0032441748421043956</v>
+      </c>
+      <c r="F85">
+        <v>3.7887653462567857e-09</v>
+      </c>
+      <c r="G85">
+        <v>0.92999848246589412</v>
+      </c>
+      <c r="H85">
+        <v>0.064494206250669525</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B86">
+        <v>0.0006182265925943495</v>
+      </c>
+      <c r="C86">
+        <v>0.00048008277862057936</v>
+      </c>
+      <c r="D86">
+        <v>0.064369513532780434</v>
+      </c>
+      <c r="E86">
+        <v>0.0028509749080645242</v>
+      </c>
+      <c r="F86">
+        <v>9.0474179610131267e-06</v>
+      </c>
+      <c r="G86">
+        <v>0.89487018041698363</v>
+      </c>
+      <c r="H86">
+        <v>0.036801974352995391</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87">
+        <v>0.0026516270007215653</v>
+      </c>
+      <c r="C87">
+        <v>0.0015255422729006909</v>
+      </c>
+      <c r="D87">
+        <v>0.020789847768697453</v>
+      </c>
+      <c r="E87">
+        <v>0.056221687133129652</v>
+      </c>
+      <c r="F87">
+        <v>1.5167860612625091e-08</v>
+      </c>
+      <c r="G87">
+        <v>0.80899084069006599</v>
+      </c>
+      <c r="H87">
+        <v>0.10982043996662398</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B88">
+        <v>0.00023780129972684843</v>
+      </c>
+      <c r="C88">
+        <v>0.00021630050826337464</v>
+      </c>
+      <c r="D88">
+        <v>0.041223180538043476</v>
+      </c>
+      <c r="E88">
+        <v>0.0018212740910461124</v>
+      </c>
+      <c r="F88">
+        <v>3.3047827070190424e-08</v>
+      </c>
+      <c r="G88">
+        <v>0.94679880287866891</v>
+      </c>
+      <c r="H88">
+        <v>0.0097026076364240994</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B89">
+        <v>0.00010287506738930001</v>
+      </c>
+      <c r="C89">
+        <v>7.5405401507532512e-07</v>
+      </c>
+      <c r="D89">
+        <v>2.4352242610747369e-06</v>
+      </c>
+      <c r="E89">
+        <v>3.8435455137897955e-06</v>
+      </c>
+      <c r="F89">
+        <v>4.0462831275110966e-08</v>
+      </c>
+      <c r="G89">
+        <v>0.9276951346337714</v>
+      </c>
+      <c r="H89">
+        <v>0.072194917012218043</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B90">
+        <v>0.0003595552221784697</v>
+      </c>
+      <c r="C90">
+        <v>1.157794803892013e-06</v>
+      </c>
+      <c r="D90">
+        <v>0.00016475899323882483</v>
+      </c>
+      <c r="E90">
+        <v>2.9049960425789814e-05</v>
+      </c>
+      <c r="F90">
+        <v>9.1101970953097961e-07</v>
+      </c>
+      <c r="G90">
+        <v>0.99072183142806658</v>
+      </c>
+      <c r="H90">
+        <v>0.0087227355815768359</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91">
+        <v>0.00042225658861154251</v>
+      </c>
+      <c r="C91">
+        <v>2.7647231519872113e-05</v>
+      </c>
+      <c r="D91">
+        <v>0.001475379988623931</v>
+      </c>
+      <c r="E91">
+        <v>0.00034291022364224918</v>
+      </c>
+      <c r="F91">
+        <v>2.8781659987694908e-07</v>
+      </c>
+      <c r="G91">
+        <v>0.97139011376806239</v>
+      </c>
+      <c r="H91">
+        <v>0.026341404382940036</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B92">
+        <v>0.00019754735479914597</v>
+      </c>
+      <c r="C92">
+        <v>7.044480497426232e-06</v>
+      </c>
+      <c r="D92">
+        <v>2.2908590913576566e-05</v>
+      </c>
+      <c r="E92">
+        <v>3.1700338237883399e-05</v>
+      </c>
+      <c r="F92">
+        <v>1.6349188508556203e-07</v>
+      </c>
+      <c r="G92">
+        <v>0.94074072089076732</v>
+      </c>
+      <c r="H92">
+        <v>0.058999914852899737</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93">
+        <v>0.00047727844504626387</v>
+      </c>
+      <c r="C93">
+        <v>0.00051742320756671158</v>
+      </c>
+      <c r="D93">
+        <v>0.0017219673419218032</v>
+      </c>
+      <c r="E93">
+        <v>0.00169518273080627</v>
+      </c>
+      <c r="F93">
+        <v>5.0937926440139805e-06</v>
+      </c>
+      <c r="G93">
+        <v>0.9567835974845903</v>
+      </c>
+      <c r="H93">
+        <v>0.038799456997424486</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B94">
+        <v>0.00069415655530483599</v>
+      </c>
+      <c r="C94">
+        <v>0.0045863427435938429</v>
+      </c>
+      <c r="D94">
+        <v>0.0010468240460573502</v>
+      </c>
+      <c r="E94">
+        <v>0.003316908708043795</v>
+      </c>
+      <c r="F94">
+        <v>4.9300391645657947e-06</v>
+      </c>
+      <c r="G94">
+        <v>0.9119611160283333</v>
+      </c>
+      <c r="H94">
+        <v>0.078389721879502369</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95">
+        <v>0.0016839741649033618</v>
+      </c>
+      <c r="C95">
+        <v>6.0710621101144768e-08</v>
+      </c>
+      <c r="D95">
+        <v>0.0026311156310991415</v>
+      </c>
+      <c r="E95">
+        <v>8.232536570005824e-06</v>
+      </c>
+      <c r="F95">
+        <v>2.4984313006310226e-09</v>
+      </c>
+      <c r="G95">
+        <v>0.9887582186998527</v>
+      </c>
+      <c r="H95">
+        <v>0.0069183957585223456</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96">
+        <v>0.0032325554948148421</v>
+      </c>
+      <c r="C96">
+        <v>0.0072383451981124121</v>
+      </c>
+      <c r="D96">
+        <v>0.0077923041592481727</v>
+      </c>
+      <c r="E96">
+        <v>0.12988836392070821</v>
+      </c>
+      <c r="F96">
+        <v>2.2822832079111147e-06</v>
+      </c>
+      <c r="G96">
+        <v>0.62789509512979913</v>
+      </c>
+      <c r="H96">
+        <v>0.22395105381410935</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B97">
+        <v>0.0017794361606679357</v>
+      </c>
+      <c r="C97">
+        <v>0.57582491282846515</v>
+      </c>
+      <c r="D97">
+        <v>4.4909215339235877e-05</v>
+      </c>
+      <c r="E97">
+        <v>0.0065249323205760117</v>
+      </c>
+      <c r="F97">
+        <v>1.6286737763359403e-05</v>
+      </c>
+      <c r="G97">
+        <v>0.31258933351691992</v>
+      </c>
+      <c r="H97">
+        <v>0.10322018922026831</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B98">
+        <v>0.00019640256881530506</v>
+      </c>
+      <c r="C98">
+        <v>0.00015149819138298676</v>
+      </c>
+      <c r="D98">
+        <v>1.6682917976975153e-05</v>
+      </c>
+      <c r="E98">
+        <v>0.00017377323568399096</v>
+      </c>
+      <c r="F98">
+        <v>1.2182726980959202e-05</v>
+      </c>
+      <c r="G98">
+        <v>0.73008443440748272</v>
+      </c>
+      <c r="H98">
+        <v>0.26936502595167705</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99">
+        <v>0.0021825358607099779</v>
+      </c>
+      <c r="C99">
+        <v>0.78111835151240727</v>
+      </c>
+      <c r="D99">
+        <v>6.0598763626173266e-05</v>
+      </c>
+      <c r="E99">
+        <v>0.0029574084820254169</v>
+      </c>
+      <c r="F99">
+        <v>3.5346024190293535e-06</v>
+      </c>
+      <c r="G99">
+        <v>0.062980722551455939</v>
+      </c>
+      <c r="H99">
+        <v>0.15069684822735613</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100">
+        <v>0.0013085873215023195</v>
+      </c>
+      <c r="C100">
+        <v>8.297580837908326e-07</v>
+      </c>
+      <c r="D100">
+        <v>8.5559164175561301e-05</v>
+      </c>
+      <c r="E100">
+        <v>8.8738040847903381e-06</v>
+      </c>
+      <c r="F100">
+        <v>3.2762253044716022e-07</v>
+      </c>
+      <c r="G100">
+        <v>0.95619219670699174</v>
+      </c>
+      <c r="H100">
+        <v>0.042403625622631377</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101">
+        <v>0.00046400943523431808</v>
+      </c>
+      <c r="C101">
+        <v>1.0268740958965444e-06</v>
+      </c>
+      <c r="D101">
+        <v>9.8491093752655957e-06</v>
+      </c>
+      <c r="E101">
+        <v>0.0011925490327545675</v>
+      </c>
+      <c r="F101">
+        <v>0.0023483822929726565</v>
+      </c>
+      <c r="G101">
+        <v>0.39908188623800278</v>
+      </c>
+      <c r="H101">
+        <v>0.59690229701756448</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102">
+        <v>0.0001393322689964903</v>
+      </c>
+      <c r="C102">
+        <v>1.8471755327343829e-06</v>
+      </c>
+      <c r="D102">
+        <v>0.0018302868567415277</v>
+      </c>
+      <c r="E102">
+        <v>0.00013635868650991949</v>
+      </c>
+      <c r="F102">
+        <v>3.5931475250405871e-10</v>
+      </c>
+      <c r="G102">
+        <v>0.96009292115255684</v>
+      </c>
+      <c r="H102">
+        <v>0.037799253500347726</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B103">
+        <v>0.00042474374288834236</v>
+      </c>
+      <c r="C103">
+        <v>0.0072137180153410878</v>
+      </c>
+      <c r="D103">
+        <v>8.2039393510756795e-06</v>
+      </c>
+      <c r="E103">
+        <v>0.0015499937072842539</v>
+      </c>
+      <c r="F103">
+        <v>8.7401278967058893e-07</v>
+      </c>
+      <c r="G103">
+        <v>0.93828415283977695</v>
+      </c>
+      <c r="H103">
+        <v>0.052518313742568691</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104">
+        <v>0.00028431816136907743</v>
+      </c>
+      <c r="C104">
+        <v>2.1806446317622537e-05</v>
+      </c>
+      <c r="D104">
+        <v>0.065130408875379908</v>
+      </c>
+      <c r="E104">
+        <v>0.00019513663923057052</v>
+      </c>
+      <c r="F104">
+        <v>2.0046999829126058e-06</v>
+      </c>
+      <c r="G104">
+        <v>0.93270761425209026</v>
+      </c>
+      <c r="H104">
+        <v>0.0016587109256296991</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B105">
+        <v>0.0023222650669503389</v>
+      </c>
+      <c r="C105">
+        <v>0.056855864180656836</v>
+      </c>
+      <c r="D105">
+        <v>3.1412602725060715e-05</v>
+      </c>
+      <c r="E105">
+        <v>0.021552522328304947</v>
+      </c>
+      <c r="F105">
+        <v>0.00038343849935797077</v>
+      </c>
+      <c r="G105">
+        <v>0.69193400190395882</v>
+      </c>
+      <c r="H105">
+        <v>0.22692049541804604</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B106">
+        <v>0.0091710200743335933</v>
+      </c>
+      <c r="C106">
+        <v>0.0023828825181195124</v>
+      </c>
+      <c r="D106">
+        <v>5.9561137258237592e-06</v>
+      </c>
+      <c r="E106">
+        <v>0.1667358043244421</v>
+      </c>
+      <c r="F106">
+        <v>5.4398253805376164e-08</v>
+      </c>
+      <c r="G106">
+        <v>0.0053398253971884387</v>
+      </c>
+      <c r="H106">
+        <v>0.8163644571739368</v>
+      </c>
+      <c r="I106">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B107">
+        <v>0.0037772839985575433</v>
+      </c>
+      <c r="C107">
+        <v>0.10729680666190422</v>
+      </c>
+      <c r="D107">
+        <v>1.0673384188724929e-05</v>
+      </c>
+      <c r="E107">
+        <v>0.016343036435802202</v>
+      </c>
+      <c r="F107">
+        <v>2.4542896324470242e-05</v>
+      </c>
+      <c r="G107">
+        <v>0.086528312776694649</v>
+      </c>
+      <c r="H107">
+        <v>0.78601934384652827</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B108">
+        <v>0.0037391704872482383</v>
+      </c>
+      <c r="C108">
+        <v>0.087704172077680137</v>
+      </c>
+      <c r="D108">
+        <v>0.00017877083511146311</v>
+      </c>
+      <c r="E108">
+        <v>0.0086669523985636425</v>
+      </c>
+      <c r="F108">
+        <v>0.0011090804398177555</v>
+      </c>
+      <c r="G108">
+        <v>0.046973262376046217</v>
+      </c>
+      <c r="H108">
+        <v>0.8516285913855326</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B109">
+        <v>0.00044084762720245161</v>
+      </c>
+      <c r="C109">
+        <v>7.4159497636320233e-05</v>
+      </c>
+      <c r="D109">
+        <v>5.2579271397265026e-05</v>
+      </c>
+      <c r="E109">
+        <v>0.00016713393741782777</v>
+      </c>
+      <c r="F109">
+        <v>2.8064763646684917e-05</v>
+      </c>
+      <c r="G109">
+        <v>0.64555185371136603</v>
+      </c>
+      <c r="H109">
+        <v>0.35368536119133331</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B110">
+        <v>0.0018555918618781565</v>
+      </c>
+      <c r="C110">
+        <v>0.018446134706619498</v>
+      </c>
+      <c r="D110">
+        <v>0.0013184264174663889</v>
+      </c>
+      <c r="E110">
+        <v>0.0063589412729431723</v>
+      </c>
+      <c r="F110">
+        <v>0.000161967159069208</v>
+      </c>
+      <c r="G110">
+        <v>0.38646737117878244</v>
+      </c>
+      <c r="H110">
+        <v>0.58539156740324105</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B111">
+        <v>0.00062869652783666217</v>
+      </c>
+      <c r="C111">
+        <v>0.025206056939689966</v>
+      </c>
+      <c r="D111">
+        <v>4.1634468962754895e-05</v>
+      </c>
+      <c r="E111">
+        <v>0.0022474452871571382</v>
+      </c>
+      <c r="F111">
+        <v>1.7047287296241997e-05</v>
+      </c>
+      <c r="G111">
+        <v>0.40160373326050075</v>
+      </c>
+      <c r="H111">
+        <v>0.57025538622855654</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B112">
+        <v>0.0039675360760786805</v>
+      </c>
+      <c r="C112">
+        <v>0.0010406669676155304</v>
+      </c>
+      <c r="D112">
+        <v>0.0004750615089480992</v>
+      </c>
+      <c r="E112">
+        <v>0.029445764063518044</v>
+      </c>
+      <c r="F112">
+        <v>0.0003329332267386212</v>
+      </c>
+      <c r="G112">
+        <v>0.47638057466986022</v>
+      </c>
+      <c r="H112">
+        <v>0.48835746348724085</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B113">
+        <v>0.0011381760782449611</v>
+      </c>
+      <c r="C113">
+        <v>0.0031542350534781382</v>
+      </c>
+      <c r="D113">
+        <v>0.00049842206827219757</v>
+      </c>
+      <c r="E113">
+        <v>0.01613717278101897</v>
+      </c>
+      <c r="F113">
+        <v>3.6411968854849558e-08</v>
+      </c>
+      <c r="G113">
+        <v>0.21600163715680706</v>
+      </c>
+      <c r="H113">
+        <v>0.76307032045020973</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B114">
+        <v>0.00011571160793097698</v>
+      </c>
+      <c r="C114">
+        <v>3.0852869095288624e-05</v>
+      </c>
+      <c r="D114">
+        <v>3.5375427120898612e-05</v>
+      </c>
+      <c r="E114">
+        <v>0.00065787186759202673</v>
+      </c>
+      <c r="F114">
+        <v>3.6101934729746092e-07</v>
+      </c>
+      <c r="G114">
+        <v>0.58836558506130876</v>
+      </c>
+      <c r="H114">
+        <v>0.41079424214760474</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B115">
+        <v>0.0024143889288331245</v>
+      </c>
+      <c r="C115">
+        <v>0.00030138201027698033</v>
+      </c>
+      <c r="D115">
+        <v>0.016767741674886386</v>
+      </c>
+      <c r="E115">
+        <v>0.02372982947782586</v>
+      </c>
+      <c r="F115">
+        <v>2.9070460609462994e-05</v>
+      </c>
+      <c r="G115">
+        <v>0.33543928077180013</v>
+      </c>
+      <c r="H115">
+        <v>0.62131830667576815</v>
+      </c>
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116">
+        <v>0.0043455379661998684</v>
+      </c>
+      <c r="C116">
+        <v>0.1150100088467805</v>
+      </c>
+      <c r="D116">
+        <v>8.3748457514949369e-06</v>
+      </c>
+      <c r="E116">
+        <v>0.049607556080166947</v>
+      </c>
+      <c r="F116">
+        <v>1.0573276150081125e-07</v>
+      </c>
+      <c r="G116">
+        <v>0.016655009840207999</v>
+      </c>
+      <c r="H116">
+        <v>0.81437340668813163</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B117">
+        <v>0.0020854464528829507</v>
+      </c>
+      <c r="C117">
+        <v>0.0035077489949457809</v>
+      </c>
+      <c r="D117">
+        <v>3.6181422293737059e-05</v>
+      </c>
+      <c r="E117">
+        <v>0.0051018393749561897</v>
+      </c>
+      <c r="F117">
+        <v>1.6093056375349819e-05</v>
+      </c>
+      <c r="G117">
+        <v>0.11053520608762205</v>
+      </c>
+      <c r="H117">
+        <v>0.87871748461092403</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B118">
+        <v>0.022190312827325042</v>
+      </c>
+      <c r="C118">
+        <v>0.55257570325674155</v>
+      </c>
+      <c r="D118">
+        <v>2.6981988117002671e-05</v>
+      </c>
+      <c r="E118">
+        <v>0.041701219326655867</v>
+      </c>
+      <c r="F118">
+        <v>1.5164884579742808e-05</v>
+      </c>
+      <c r="G118">
+        <v>0.039168045811909732</v>
+      </c>
+      <c r="H118">
+        <v>0.34432257190467108</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B119">
+        <v>0.0012319319267575732</v>
+      </c>
+      <c r="C119">
+        <v>0.0087865035633451251</v>
+      </c>
+      <c r="D119">
+        <v>2.0414989742209778e-05</v>
+      </c>
+      <c r="E119">
+        <v>0.0045802121719633725</v>
+      </c>
+      <c r="F119">
+        <v>3.1770962035308537e-06</v>
+      </c>
+      <c r="G119">
+        <v>0.14509225196420858</v>
+      </c>
+      <c r="H119">
+        <v>0.8402855082877797</v>
+      </c>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B120">
+        <v>0.0015558965926511495</v>
+      </c>
+      <c r="C120">
+        <v>0.017107097520658102</v>
+      </c>
+      <c r="D120">
+        <v>1.7911546751215139e-05</v>
+      </c>
+      <c r="E120">
+        <v>0.0061724314052953597</v>
+      </c>
+      <c r="F120">
+        <v>7.7150165365297741e-05</v>
+      </c>
+      <c r="G120">
+        <v>0.041344381291145677</v>
+      </c>
+      <c r="H120">
+        <v>0.93372513147813319</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B121">
+        <v>0.00099693951366793855</v>
+      </c>
+      <c r="C121">
+        <v>0.0062460114450834962</v>
+      </c>
+      <c r="D121">
+        <v>3.5893639027435483e-05</v>
+      </c>
+      <c r="E121">
+        <v>0.0070244049676551745</v>
+      </c>
+      <c r="F121">
+        <v>1.679808568120803e-05</v>
+      </c>
+      <c r="G121">
+        <v>0.12059629472367329</v>
+      </c>
+      <c r="H121">
+        <v>0.86508365762521144</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B122">
+        <v>0.0002098771262324397</v>
+      </c>
+      <c r="C122">
+        <v>0.00015384193305762953</v>
+      </c>
+      <c r="D122">
+        <v>2.5484484339839118e-05</v>
+      </c>
+      <c r="E122">
+        <v>0.0002860915347510924</v>
+      </c>
+      <c r="F122">
+        <v>3.5776698680308277e-07</v>
+      </c>
+      <c r="G122">
+        <v>0.40453998689338244</v>
+      </c>
+      <c r="H122">
+        <v>0.5947843602612497</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B123">
+        <v>0.0025169309370581205</v>
+      </c>
+      <c r="C123">
+        <v>0.042759410553132628</v>
+      </c>
+      <c r="D123">
+        <v>4.1110625777331196e-05</v>
+      </c>
+      <c r="E123">
+        <v>0.009417637780119106</v>
+      </c>
+      <c r="F123">
+        <v>1.0165783374639625e-05</v>
+      </c>
+      <c r="G123">
+        <v>0.090701075400093922</v>
+      </c>
+      <c r="H123">
+        <v>0.85455366892044415</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B124">
+        <v>0.0006260055855561176</v>
+      </c>
+      <c r="C124">
+        <v>0.0014441764733104437</v>
+      </c>
+      <c r="D124">
+        <v>0.001322789880363567</v>
+      </c>
+      <c r="E124">
+        <v>0.0027200713599172246</v>
+      </c>
+      <c r="F124">
+        <v>4.0271429935819762e-05</v>
+      </c>
+      <c r="G124">
+        <v>0.77187336420583519</v>
+      </c>
+      <c r="H124">
+        <v>0.22197332106508172</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B125">
+        <v>0.020559549572294</v>
+      </c>
+      <c r="C125">
+        <v>0.57692475309973867</v>
+      </c>
+      <c r="D125">
+        <v>0.00011356827676641481</v>
+      </c>
+      <c r="E125">
+        <v>0.063011800987608349</v>
+      </c>
+      <c r="F125">
+        <v>0.00012638187303984534</v>
+      </c>
+      <c r="G125">
+        <v>0.042252504944623584</v>
+      </c>
+      <c r="H125">
+        <v>0.29701144124592921</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B126">
+        <v>0.0025443025068733307</v>
+      </c>
+      <c r="C126">
+        <v>0.064002828410546261</v>
+      </c>
+      <c r="D126">
+        <v>0.00024926983612047829</v>
+      </c>
+      <c r="E126">
+        <v>0.011399969566947122</v>
+      </c>
+      <c r="F126">
+        <v>1.5054141078588212e-06</v>
+      </c>
+      <c r="G126">
+        <v>0.010066525296504314</v>
+      </c>
+      <c r="H126">
+        <v>0.91173559896890066</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B127">
+        <v>0.0012264464427428007</v>
+      </c>
+      <c r="C127">
+        <v>0.0016975517102006329</v>
+      </c>
+      <c r="D127">
+        <v>0.00010478243525839061</v>
+      </c>
+      <c r="E127">
+        <v>0.0092422067085285529</v>
+      </c>
+      <c r="F127">
+        <v>0.051521676154381114</v>
+      </c>
+      <c r="G127">
+        <v>0.12673391422208355</v>
+      </c>
+      <c r="H127">
+        <v>0.80947342232680497</v>
+      </c>
+      <c r="I127">
+        <v>7</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B128">
+        <v>0.0014021920218649276</v>
+      </c>
+      <c r="C128">
+        <v>0.0085963071648712374</v>
+      </c>
+      <c r="D128">
+        <v>2.8157185622596028e-05</v>
+      </c>
+      <c r="E128">
+        <v>0.0089711520118251047</v>
+      </c>
+      <c r="F128">
+        <v>0.00082957119535258304</v>
+      </c>
+      <c r="G128">
+        <v>0.47168867424387739</v>
+      </c>
+      <c r="H128">
+        <v>0.50848394617658621</v>
+      </c>
+      <c r="I128">
+        <v>7</v>
+      </c>
+      <c r="J128">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J127"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="34.28515625" customWidth="true"/>
+    <col min="3" max="3" width="27.85546875" customWidth="true"/>
+    <col min="4" max="4" width="29.28515625" customWidth="true"/>
+    <col min="5" max="5" width="29.28515625" customWidth="true"/>
+    <col min="6" max="6" width="29.28515625" customWidth="true"/>
+    <col min="7" max="7" width="29.28515625" customWidth="true"/>
+    <col min="8" max="8" width="29.28515625" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2">
+        <v>0.97546840867383111</v>
+      </c>
+      <c r="C2">
+        <v>0.00089961970872804397</v>
+      </c>
+      <c r="D2">
+        <v>1.0490575187076866e-05</v>
+      </c>
+      <c r="E2">
+        <v>0.0052812521666779754</v>
+      </c>
+      <c r="F2">
+        <v>1.6394655114387874e-05</v>
+      </c>
+      <c r="G2">
+        <v>0.015324127230145817</v>
+      </c>
+      <c r="H2">
+        <v>0.0029997069903155821</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3">
+        <v>0.95468081349010692</v>
+      </c>
+      <c r="C3">
+        <v>0.0095499255906659475</v>
+      </c>
+      <c r="D3">
+        <v>1.8691236298754731e-05</v>
+      </c>
+      <c r="E3">
+        <v>0.020825775813293246</v>
+      </c>
+      <c r="F3">
+        <v>4.5696188952188474e-05</v>
+      </c>
+      <c r="G3">
+        <v>0.01331970583628388</v>
+      </c>
+      <c r="H3">
+        <v>0.0015593918443990858</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4">
+        <v>0.013570316000660962</v>
+      </c>
+      <c r="C4">
+        <v>0.96816867249762217</v>
+      </c>
+      <c r="D4">
+        <v>1.9747485385966864e-06</v>
+      </c>
+      <c r="E4">
+        <v>0.014705905890858658</v>
+      </c>
+      <c r="F4">
+        <v>4.8928153499424359e-09</v>
+      </c>
+      <c r="G4">
+        <v>0.0016377129152521494</v>
+      </c>
+      <c r="H4">
+        <v>0.001915413054252093</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5">
+        <v>0.0033716003158715908</v>
+      </c>
+      <c r="C5">
+        <v>0.18159474088433178</v>
+      </c>
+      <c r="D5">
+        <v>2.7463004626549035e-06</v>
+      </c>
+      <c r="E5">
+        <v>0.041108185652308254</v>
+      </c>
+      <c r="F5">
+        <v>0.00020269869817999967</v>
+      </c>
+      <c r="G5">
+        <v>0.41951653566452374</v>
+      </c>
+      <c r="H5">
+        <v>0.35420349248432192</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6">
+        <v>0.0039432885622331408</v>
+      </c>
+      <c r="C6">
+        <v>0.6039652795214302</v>
+      </c>
+      <c r="D6">
+        <v>6.2800019087439459e-08</v>
+      </c>
+      <c r="E6">
+        <v>0.065435531629511587</v>
+      </c>
+      <c r="F6">
+        <v>0.025206478465002614</v>
+      </c>
+      <c r="G6">
+        <v>0.28707984241947621</v>
+      </c>
+      <c r="H6">
+        <v>0.014369516602327267</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7">
+        <v>0.00034091099697925104</v>
+      </c>
+      <c r="C7">
+        <v>0.65001979234650231</v>
+      </c>
+      <c r="D7">
+        <v>3.0318080351143257e-06</v>
+      </c>
+      <c r="E7">
+        <v>0.00093916446597756365</v>
+      </c>
+      <c r="F7">
+        <v>2.1372493496206125e-07</v>
+      </c>
+      <c r="G7">
+        <v>0.11462364373928892</v>
+      </c>
+      <c r="H7">
+        <v>0.23407324291828188</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8">
+        <v>0.00051359521749827595</v>
+      </c>
+      <c r="C8">
+        <v>0.97172775937704636</v>
+      </c>
+      <c r="D8">
+        <v>3.2348586928308731e-06</v>
+      </c>
+      <c r="E8">
+        <v>0.00040359667057018775</v>
+      </c>
+      <c r="F8">
+        <v>5.2541303197793556e-07</v>
+      </c>
+      <c r="G8">
+        <v>0.0097958519890416432</v>
+      </c>
+      <c r="H8">
+        <v>0.01755543647411871</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9">
+        <v>0.032798748700731441</v>
+      </c>
+      <c r="C9">
+        <v>0.20114929310360655</v>
+      </c>
+      <c r="D9">
+        <v>4.9521162053998697e-06</v>
+      </c>
+      <c r="E9">
+        <v>0.17933991344776767</v>
+      </c>
+      <c r="F9">
+        <v>0.00021044409759121121</v>
+      </c>
+      <c r="G9">
+        <v>0.29927068055295863</v>
+      </c>
+      <c r="H9">
+        <v>0.28722596798113903</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10">
+        <v>0.0011615627848753874</v>
+      </c>
+      <c r="C10">
+        <v>0.95919943759725812</v>
+      </c>
+      <c r="D10">
+        <v>3.0122949330013598e-07</v>
+      </c>
+      <c r="E10">
+        <v>0.0045736935427717765</v>
+      </c>
+      <c r="F10">
+        <v>1.2183183265458828e-08</v>
+      </c>
+      <c r="G10">
+        <v>0.017362233037329436</v>
+      </c>
+      <c r="H10">
+        <v>0.017702759625088653</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11">
+        <v>0.00084531891841262174</v>
+      </c>
+      <c r="C11">
+        <v>0.42170332991398679</v>
+      </c>
+      <c r="D11">
+        <v>5.5014622991233009e-05</v>
+      </c>
+      <c r="E11">
+        <v>0.0079402333415974045</v>
+      </c>
+      <c r="F11">
+        <v>0.00014098480023895713</v>
+      </c>
+      <c r="G11">
+        <v>0.39815139071855843</v>
+      </c>
+      <c r="H11">
+        <v>0.17116372768421459</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12">
+        <v>0.0022061978905668056</v>
+      </c>
+      <c r="C12">
+        <v>0.59324399805336858</v>
+      </c>
+      <c r="D12">
+        <v>6.4507614793120856e-05</v>
+      </c>
+      <c r="E12">
+        <v>0.19024504315597499</v>
+      </c>
+      <c r="F12">
+        <v>1.6847511994393062e-05</v>
+      </c>
+      <c r="G12">
+        <v>0.04538748143522061</v>
+      </c>
+      <c r="H12">
+        <v>0.16883592433808142</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13">
+        <v>0.00017826284809574892</v>
+      </c>
+      <c r="C13">
+        <v>0.82734590815468789</v>
+      </c>
+      <c r="D13">
+        <v>1.1263031825246967e-05</v>
+      </c>
+      <c r="E13">
+        <v>0.00048438681561951985</v>
+      </c>
+      <c r="F13">
+        <v>1.7873131270027285e-07</v>
+      </c>
+      <c r="G13">
+        <v>0.16865745919215777</v>
+      </c>
+      <c r="H13">
+        <v>0.0033225412263010279</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14">
+        <v>0.12879673549882009</v>
+      </c>
+      <c r="C14">
+        <v>0.36977618931195744</v>
+      </c>
+      <c r="D14">
+        <v>3.1476744925241954e-06</v>
+      </c>
+      <c r="E14">
+        <v>0.39286005058830115</v>
+      </c>
+      <c r="F14">
+        <v>0.023597343195033857</v>
+      </c>
+      <c r="G14">
+        <v>0.070318044925271356</v>
+      </c>
+      <c r="H14">
+        <v>0.01464848880612377</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15">
+        <v>0.00041622585351696364</v>
+      </c>
+      <c r="C15">
+        <v>0.89578711270422118</v>
+      </c>
+      <c r="D15">
+        <v>0.00027867331472082796</v>
+      </c>
+      <c r="E15">
+        <v>0.0015621143730701393</v>
+      </c>
+      <c r="F15">
+        <v>5.2842414843225208e-06</v>
+      </c>
+      <c r="G15">
+        <v>0.039420738248907787</v>
+      </c>
+      <c r="H15">
+        <v>0.062529851264078729</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16">
+        <v>0.01229681547274343</v>
+      </c>
+      <c r="C16">
+        <v>0.31371685683997402</v>
+      </c>
+      <c r="D16">
+        <v>6.7642913285717642e-05</v>
+      </c>
+      <c r="E16">
+        <v>0.26885381417374077</v>
+      </c>
+      <c r="F16">
+        <v>7.4934357070612022e-05</v>
+      </c>
+      <c r="G16">
+        <v>0.076855080683407725</v>
+      </c>
+      <c r="H16">
+        <v>0.32813485555977773</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B17">
+        <v>0.00063983796418279522</v>
+      </c>
+      <c r="C17">
+        <v>0.079515932079072107</v>
+      </c>
+      <c r="D17">
+        <v>3.5145470745332068e-05</v>
+      </c>
+      <c r="E17">
+        <v>0.0032746085502775133</v>
+      </c>
+      <c r="F17">
+        <v>1.2502385119215529e-06</v>
+      </c>
+      <c r="G17">
+        <v>0.52720354240127498</v>
+      </c>
+      <c r="H17">
+        <v>0.38932968329593531</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18">
+        <v>0.020540743603347185</v>
+      </c>
+      <c r="C18">
+        <v>0.90941843369077335</v>
+      </c>
+      <c r="D18">
+        <v>3.0784255725984682e-06</v>
+      </c>
+      <c r="E18">
+        <v>0.020667346647054233</v>
+      </c>
+      <c r="F18">
+        <v>1.046348306273985e-06</v>
+      </c>
+      <c r="G18">
+        <v>0.039335628722575858</v>
+      </c>
+      <c r="H18">
+        <v>0.010033722562370518</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19">
+        <v>0.023009689108479437</v>
+      </c>
+      <c r="C19">
+        <v>0.97094331683574475</v>
+      </c>
+      <c r="D19">
+        <v>4.3915979842774557e-06</v>
+      </c>
+      <c r="E19">
+        <v>0.0010907111550642493</v>
+      </c>
+      <c r="F19">
+        <v>5.6021939552607649e-07</v>
+      </c>
+      <c r="G19">
+        <v>0.0046541936697149476</v>
+      </c>
+      <c r="H19">
+        <v>0.00029713741361672848</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20">
+        <v>0.0088467731047178789</v>
+      </c>
+      <c r="C20">
+        <v>0.50974784745371682</v>
+      </c>
+      <c r="D20">
+        <v>3.6681131604299103e-05</v>
+      </c>
+      <c r="E20">
+        <v>0.0043671251565747006</v>
+      </c>
+      <c r="F20">
+        <v>2.7640248759648205e-05</v>
+      </c>
+      <c r="G20">
+        <v>0.28041147865926286</v>
+      </c>
+      <c r="H20">
+        <v>0.19656245424536384</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21">
+        <v>0.010298532149282565</v>
+      </c>
+      <c r="C21">
+        <v>0.97343457744052131</v>
+      </c>
+      <c r="D21">
+        <v>5.3349530936460877e-06</v>
+      </c>
+      <c r="E21">
+        <v>0.0021206274638637468</v>
+      </c>
+      <c r="F21">
+        <v>2.1085812723625994e-07</v>
+      </c>
+      <c r="G21">
+        <v>0.0094839183885348979</v>
+      </c>
+      <c r="H21">
+        <v>0.0046567987465766748</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B22">
+        <v>0.001228808380646072</v>
+      </c>
+      <c r="C22">
+        <v>0.98292425950718132</v>
+      </c>
+      <c r="D22">
+        <v>2.5765155666736166e-07</v>
+      </c>
+      <c r="E22">
+        <v>0.00017628365547026011</v>
+      </c>
+      <c r="F22">
+        <v>2.3844319487156218e-07</v>
+      </c>
+      <c r="G22">
+        <v>0.0082343650801447229</v>
+      </c>
+      <c r="H22">
+        <v>0.0074357872818061957</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23">
+        <v>0.0034776828404737025</v>
+      </c>
+      <c r="C23">
+        <v>0.91980070913118306</v>
+      </c>
+      <c r="D23">
+        <v>5.4343275161472271e-06</v>
+      </c>
+      <c r="E23">
+        <v>0.0022526941835539324</v>
+      </c>
+      <c r="F23">
+        <v>6.7723618833402801e-07</v>
+      </c>
+      <c r="G23">
+        <v>0.059918767095469332</v>
+      </c>
+      <c r="H23">
+        <v>0.014544035185615388</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24">
+        <v>0.024190681841867259</v>
+      </c>
+      <c r="C24">
+        <v>0.71017797862423726</v>
+      </c>
+      <c r="D24">
+        <v>2.9453857616289695e-05</v>
+      </c>
+      <c r="E24">
+        <v>0.082337340573881507</v>
+      </c>
+      <c r="F24">
+        <v>0.00028239794354459991</v>
+      </c>
+      <c r="G24">
+        <v>0.048785082180841689</v>
+      </c>
+      <c r="H24">
+        <v>0.1341970649780114</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25">
+        <v>0.0012436659824922062</v>
+      </c>
+      <c r="C25">
+        <v>0.97546950537670396</v>
+      </c>
+      <c r="D25">
+        <v>1.0652497700821382e-07</v>
+      </c>
+      <c r="E25">
+        <v>0.00023586036945853013</v>
+      </c>
+      <c r="F25">
+        <v>1.9108734560871062e-08</v>
+      </c>
+      <c r="G25">
+        <v>0.0049802934572419624</v>
+      </c>
+      <c r="H25">
+        <v>0.018070549180391728</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26">
+        <v>0.023608578965500445</v>
+      </c>
+      <c r="C26">
+        <v>0.96809652057891715</v>
+      </c>
+      <c r="D26">
+        <v>1.9494453036799785e-07</v>
+      </c>
+      <c r="E26">
+        <v>0.00032075005837686971</v>
+      </c>
+      <c r="F26">
+        <v>1.027270570942594e-07</v>
+      </c>
+      <c r="G26">
+        <v>0.0073376306412749077</v>
+      </c>
+      <c r="H26">
+        <v>0.0006362220843431685</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27">
+        <v>0.0026717127780275639</v>
+      </c>
+      <c r="C27">
+        <v>0.95119450797439731</v>
+      </c>
+      <c r="D27">
+        <v>9.4495542384787488e-08</v>
+      </c>
+      <c r="E27">
+        <v>0.0096922156274726837</v>
+      </c>
+      <c r="F27">
+        <v>4.0240724643503868e-08</v>
+      </c>
+      <c r="G27">
+        <v>0.034944144657884084</v>
+      </c>
+      <c r="H27">
+        <v>0.0014972842259514084</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28">
+        <v>0.0008237204804286269</v>
+      </c>
+      <c r="C28">
+        <v>0.97406462692650342</v>
+      </c>
+      <c r="D28">
+        <v>1.2012981159164683e-06</v>
+      </c>
+      <c r="E28">
+        <v>0.0031644454406960965</v>
+      </c>
+      <c r="F28">
+        <v>7.2003320016826835e-08</v>
+      </c>
+      <c r="G28">
+        <v>0.014218347861876221</v>
+      </c>
+      <c r="H28">
+        <v>0.0077275859890596618</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29">
+        <v>0.0098079834414137781</v>
+      </c>
+      <c r="C29">
+        <v>0.94342054335647263</v>
+      </c>
+      <c r="D29">
+        <v>4.6960951894184903e-08</v>
+      </c>
+      <c r="E29">
+        <v>0.029725464332315002</v>
+      </c>
+      <c r="F29">
+        <v>2.2055929492186872e-06</v>
+      </c>
+      <c r="G29">
+        <v>0.013758540175294145</v>
+      </c>
+      <c r="H29">
+        <v>0.0032852161406034066</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B30">
+        <v>0.014593668549974811</v>
+      </c>
+      <c r="C30">
+        <v>0.93898321692677522</v>
+      </c>
+      <c r="D30">
+        <v>7.6525922410195422e-06</v>
+      </c>
+      <c r="E30">
+        <v>0.015551880287705983</v>
+      </c>
+      <c r="F30">
+        <v>2.4342987046628258e-06</v>
+      </c>
+      <c r="G30">
+        <v>0.015657424258261696</v>
+      </c>
+      <c r="H30">
+        <v>0.015203723086336673</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31">
+        <v>0.00052689176004250282</v>
+      </c>
+      <c r="C31">
+        <v>0.97812988597053008</v>
+      </c>
+      <c r="D31">
+        <v>2.3925660887722213e-06</v>
+      </c>
+      <c r="E31">
+        <v>0.00045396345313067728</v>
+      </c>
+      <c r="F31">
+        <v>4.3700522760291098e-07</v>
+      </c>
+      <c r="G31">
+        <v>0.011157482580280627</v>
+      </c>
+      <c r="H31">
+        <v>0.0097289466646996465</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32">
+        <v>0.0024328085763732732</v>
+      </c>
+      <c r="C32">
+        <v>0.95981352555851907</v>
+      </c>
+      <c r="D32">
+        <v>6.8862946852750122e-07</v>
+      </c>
+      <c r="E32">
+        <v>0.00070854539480081171</v>
+      </c>
+      <c r="F32">
+        <v>5.3528334691494162e-08</v>
+      </c>
+      <c r="G32">
+        <v>0.026772515090605308</v>
+      </c>
+      <c r="H32">
+        <v>0.010271863221898334</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33">
+        <v>0.00027623268002810913</v>
+      </c>
+      <c r="C33">
+        <v>0.91714495394688111</v>
+      </c>
+      <c r="D33">
+        <v>4.019247718252896e-07</v>
+      </c>
+      <c r="E33">
+        <v>0.0003492286977804198</v>
+      </c>
+      <c r="F33">
+        <v>3.7249842259405616e-08</v>
+      </c>
+      <c r="G33">
+        <v>0.079746013538522079</v>
+      </c>
+      <c r="H33">
+        <v>0.0024831319621741706</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B34">
+        <v>0.0019720376532053031</v>
+      </c>
+      <c r="C34">
+        <v>0.7344509207697737</v>
+      </c>
+      <c r="D34">
+        <v>6.8327155877893006e-07</v>
+      </c>
+      <c r="E34">
+        <v>0.0035327635499991039</v>
+      </c>
+      <c r="F34">
+        <v>0.00013545334640250797</v>
+      </c>
+      <c r="G34">
+        <v>0.058903498684842757</v>
+      </c>
+      <c r="H34">
+        <v>0.20100464272421767</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B35">
+        <v>0.00029432546488681124</v>
+      </c>
+      <c r="C35">
+        <v>0.7379827296057514</v>
+      </c>
+      <c r="D35">
+        <v>5.982019180831884e-06</v>
+      </c>
+      <c r="E35">
+        <v>0.0009876049889394568</v>
+      </c>
+      <c r="F35">
+        <v>3.2508181397982978e-07</v>
+      </c>
+      <c r="G35">
+        <v>0.046621904250820786</v>
+      </c>
+      <c r="H35">
+        <v>0.21410712858860681</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36">
+        <v>0.00014478354847905801</v>
+      </c>
+      <c r="C36">
+        <v>0.90499949651124467</v>
+      </c>
+      <c r="D36">
+        <v>3.0051076921966364e-06</v>
+      </c>
+      <c r="E36">
+        <v>0.00066652373715719328</v>
+      </c>
+      <c r="F36">
+        <v>1.5392811081383601e-07</v>
+      </c>
+      <c r="G36">
+        <v>0.089427615891510617</v>
+      </c>
+      <c r="H36">
+        <v>0.0047584212758054996</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B37">
+        <v>0.00050774057441830016</v>
+      </c>
+      <c r="C37">
+        <v>0.60920119893535019</v>
+      </c>
+      <c r="D37">
+        <v>3.0010222025143278e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.001786429235468715</v>
+      </c>
+      <c r="F37">
+        <v>1.6678443690759645e-05</v>
+      </c>
+      <c r="G37">
+        <v>0.36851188017781933</v>
+      </c>
+      <c r="H37">
+        <v>0.019946062411227528</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B38">
+        <v>0.00035131357456048411</v>
+      </c>
+      <c r="C38">
+        <v>0.92692493649669971</v>
+      </c>
+      <c r="D38">
+        <v>5.4453975160055518e-07</v>
+      </c>
+      <c r="E38">
+        <v>0.00024904768825016754</v>
+      </c>
+      <c r="F38">
+        <v>1.1950141868691788e-06</v>
+      </c>
+      <c r="G38">
+        <v>0.071489300784822005</v>
+      </c>
+      <c r="H38">
+        <v>0.00098366190172887802</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39">
+        <v>0.00032779503595759793</v>
+      </c>
+      <c r="C39">
+        <v>0.98607149932276084</v>
+      </c>
+      <c r="D39">
+        <v>6.2048504523280803e-06</v>
+      </c>
+      <c r="E39">
+        <v>0.00020503775477684574</v>
+      </c>
+      <c r="F39">
+        <v>1.3564543671046208e-09</v>
+      </c>
+      <c r="G39">
+        <v>0.00086595955247291466</v>
+      </c>
+      <c r="H39">
+        <v>0.012523502127125092</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B40">
+        <v>0.00019286797593996591</v>
+      </c>
+      <c r="C40">
+        <v>0.85129863988960053</v>
+      </c>
+      <c r="D40">
+        <v>2.4052453225832061e-05</v>
+      </c>
+      <c r="E40">
+        <v>0.00069032978781659901</v>
+      </c>
+      <c r="F40">
+        <v>5.5938452945980155e-07</v>
+      </c>
+      <c r="G40">
+        <v>0.12967101504029124</v>
+      </c>
+      <c r="H40">
+        <v>0.018122535468596438</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41">
+        <v>0.00065156104070519935</v>
+      </c>
+      <c r="C41">
+        <v>0.92370697540436308</v>
+      </c>
+      <c r="D41">
+        <v>2.0324581246329822e-05</v>
+      </c>
+      <c r="E41">
+        <v>0.00054593018726171224</v>
+      </c>
+      <c r="F41">
+        <v>2.1659246065975157e-06</v>
+      </c>
+      <c r="G41">
+        <v>0.010352924862946948</v>
+      </c>
+      <c r="H41">
+        <v>0.064720117998870133</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B42">
+        <v>0.00069071415211725796</v>
+      </c>
+      <c r="C42">
+        <v>0.91553999020488297</v>
+      </c>
+      <c r="D42">
+        <v>1.7128848658294936e-06</v>
+      </c>
+      <c r="E42">
+        <v>0.00070986904469177515</v>
+      </c>
+      <c r="F42">
+        <v>2.2687204574424625e-05</v>
+      </c>
+      <c r="G42">
+        <v>0.068074778110543063</v>
+      </c>
+      <c r="H42">
+        <v>0.014960248398324756</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B43">
+        <v>0.00062587837466558964</v>
+      </c>
+      <c r="C43">
+        <v>2.9062261421309739e-07</v>
+      </c>
+      <c r="D43">
+        <v>0.990624474281951</v>
+      </c>
+      <c r="E43">
+        <v>0.0050663948496148222</v>
+      </c>
+      <c r="F43">
+        <v>8.8800306734063991e-06</v>
+      </c>
+      <c r="G43">
+        <v>0.0026417443399511216</v>
+      </c>
+      <c r="H43">
+        <v>0.0010323375005300073</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B44">
+        <v>1.9093871690190253e-05</v>
+      </c>
+      <c r="C44">
+        <v>9.8042388891738794e-07</v>
+      </c>
+      <c r="D44">
+        <v>0.99446241625051834</v>
+      </c>
+      <c r="E44">
+        <v>0.00053460984184010611</v>
+      </c>
+      <c r="F44">
+        <v>2.5686327197782463e-05</v>
+      </c>
+      <c r="G44">
+        <v>0.004699820412992925</v>
+      </c>
+      <c r="H44">
+        <v>0.00025739287187186448</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45">
+        <v>9.1591955650054084e-05</v>
+      </c>
+      <c r="C45">
+        <v>3.9658890361497805e-05</v>
+      </c>
+      <c r="D45">
+        <v>0.97447639830571364</v>
+      </c>
+      <c r="E45">
+        <v>0.0019459210675523196</v>
+      </c>
+      <c r="F45">
+        <v>0.0007931097621556002</v>
+      </c>
+      <c r="G45">
+        <v>0.021296503623491777</v>
+      </c>
+      <c r="H45">
+        <v>0.0013568163950750723</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B46">
+        <v>0.048068377120661664</v>
+      </c>
+      <c r="C46">
+        <v>0.086966772309574419</v>
+      </c>
+      <c r="D46">
+        <v>0.234167484587994</v>
+      </c>
+      <c r="E46">
+        <v>0.041029317192839726</v>
+      </c>
+      <c r="F46">
+        <v>0.16995170241356433</v>
+      </c>
+      <c r="G46">
+        <v>0.27485744721846134</v>
+      </c>
+      <c r="H46">
+        <v>0.14495889915690441</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B47">
+        <v>2.1223379667755476e-05</v>
+      </c>
+      <c r="C47">
+        <v>2.4815587680583514e-05</v>
+      </c>
+      <c r="D47">
+        <v>0.97919352831102691</v>
+      </c>
+      <c r="E47">
+        <v>0.00020207322385100055</v>
+      </c>
+      <c r="F47">
+        <v>4.8959923654250947e-05</v>
+      </c>
+      <c r="G47">
+        <v>0.019909702692609492</v>
+      </c>
+      <c r="H47">
+        <v>0.00059969688151015202</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B48">
+        <v>3.2492391679053659e-05</v>
+      </c>
+      <c r="C48">
+        <v>3.2325262979382099e-05</v>
+      </c>
+      <c r="D48">
+        <v>0.61778737945682716</v>
+      </c>
+      <c r="E48">
+        <v>3.2371264145798319e-05</v>
+      </c>
+      <c r="F48">
+        <v>3.2295033447142166e-05</v>
+      </c>
+      <c r="G48">
+        <v>0.38205080702729588</v>
+      </c>
+      <c r="H48">
+        <v>3.232956362553899e-05</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B49">
+        <v>0.00021404855089249522</v>
+      </c>
+      <c r="C49">
+        <v>5.3309833356026744e-05</v>
+      </c>
+      <c r="D49">
+        <v>0.98820955372486685</v>
+      </c>
+      <c r="E49">
+        <v>0.0024497130449679968</v>
+      </c>
+      <c r="F49">
+        <v>7.3327286054203597e-05</v>
+      </c>
+      <c r="G49">
+        <v>0.0073362926657669211</v>
+      </c>
+      <c r="H49">
+        <v>0.001663754894095397</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B50">
+        <v>6.8624410652774235e-05</v>
+      </c>
+      <c r="C50">
+        <v>0.002848939261062632</v>
+      </c>
+      <c r="D50">
+        <v>0.00049364605972743896</v>
+      </c>
+      <c r="E50">
+        <v>0.0010112723479970137</v>
+      </c>
+      <c r="F50">
+        <v>0.75146276070067453</v>
+      </c>
+      <c r="G50">
+        <v>0.24397347377873027</v>
+      </c>
+      <c r="H50">
+        <v>0.00014128344115537202</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51">
+        <v>3.4103506135794892e-05</v>
+      </c>
+      <c r="C51">
+        <v>3.8145916531265552e-08</v>
+      </c>
+      <c r="D51">
+        <v>0.99382715723066639</v>
+      </c>
+      <c r="E51">
+        <v>0.0055426913241159162</v>
+      </c>
+      <c r="F51">
+        <v>1.4026712727483772e-09</v>
+      </c>
+      <c r="G51">
+        <v>0.00050779297292956435</v>
+      </c>
+      <c r="H51">
+        <v>8.821541756459085e-05</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B52">
+        <v>0.0027246780556584266</v>
+      </c>
+      <c r="C52">
+        <v>5.1447163546243257e-05</v>
+      </c>
+      <c r="D52">
+        <v>5.2166476458302279e-06</v>
+      </c>
+      <c r="E52">
+        <v>0.99238874114618347</v>
+      </c>
+      <c r="F52">
+        <v>1.7133552405745008e-09</v>
+      </c>
+      <c r="G52">
+        <v>0.0040579359367288294</v>
+      </c>
+      <c r="H52">
+        <v>0.00077197933688187581</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B53">
+        <v>0.0034653659450246542</v>
+      </c>
+      <c r="C53">
+        <v>0.00033841698323870386</v>
+      </c>
+      <c r="D53">
+        <v>1.926284651293036e-05</v>
+      </c>
+      <c r="E53">
+        <v>0.98984950912445135</v>
+      </c>
+      <c r="F53">
+        <v>1.1749226327695346e-08</v>
+      </c>
+      <c r="G53">
+        <v>0.0035932924506184597</v>
+      </c>
+      <c r="H53">
+        <v>0.0027341409009276102</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B54">
+        <v>0.022204530335981555</v>
+      </c>
+      <c r="C54">
+        <v>0.0075529161169212398</v>
+      </c>
+      <c r="D54">
+        <v>0.00010052694377895431</v>
+      </c>
+      <c r="E54">
+        <v>0.86664634135714802</v>
+      </c>
+      <c r="F54">
+        <v>1.03492794304069e-10</v>
+      </c>
+      <c r="G54">
+        <v>0.00022786209571296547</v>
+      </c>
+      <c r="H54">
+        <v>0.10326782304696443</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B55">
+        <v>0.0015082398185148809</v>
+      </c>
+      <c r="C55">
+        <v>1.2924443679994842e-05</v>
+      </c>
+      <c r="D55">
+        <v>1.253147365153697e-05</v>
+      </c>
+      <c r="E55">
+        <v>0.97678566264111122</v>
+      </c>
+      <c r="F55">
+        <v>3.6618406252868278e-09</v>
+      </c>
+      <c r="G55">
+        <v>0.0089316807764773954</v>
+      </c>
+      <c r="H55">
+        <v>0.012748957184724227</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56">
+        <v>7.9291168135217226e-05</v>
+      </c>
+      <c r="C56">
+        <v>7.2268310776605512e-07</v>
+      </c>
+      <c r="D56">
+        <v>0.00062905460755393586</v>
+      </c>
+      <c r="E56">
+        <v>0.0015569492392622927</v>
+      </c>
+      <c r="F56">
+        <v>0.99629285644924404</v>
+      </c>
+      <c r="G56">
+        <v>9.9990881812745446e-05</v>
+      </c>
+      <c r="H56">
+        <v>0.0013411349708839343</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B57">
+        <v>0.00014809093660086745</v>
+      </c>
+      <c r="C57">
+        <v>0.0035157453907109682</v>
+      </c>
+      <c r="D57">
+        <v>4.1626782553139311e-05</v>
+      </c>
+      <c r="E57">
+        <v>0.0065319893084800663</v>
+      </c>
+      <c r="F57">
+        <v>0.95197448149126074</v>
+      </c>
+      <c r="G57">
+        <v>0.024199432227157727</v>
+      </c>
+      <c r="H57">
+        <v>0.013588633863236482</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B58">
+        <v>3.5022947493482406e-05</v>
+      </c>
+      <c r="C58">
+        <v>9.0444282654030156e-07</v>
+      </c>
+      <c r="D58">
+        <v>0.00027744246572517308</v>
+      </c>
+      <c r="E58">
+        <v>0.0016562879154646477</v>
+      </c>
+      <c r="F58">
+        <v>0.99439343741537889</v>
+      </c>
+      <c r="G58">
+        <v>2.4983097698905926e-05</v>
+      </c>
+      <c r="H58">
+        <v>0.0036119217154122153</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B59">
+        <v>3.3474310582204857e-05</v>
+      </c>
+      <c r="C59">
+        <v>0.0018576104084328923</v>
+      </c>
+      <c r="D59">
+        <v>0.00028993290729334106</v>
+      </c>
+      <c r="E59">
+        <v>0.00067962575213116724</v>
+      </c>
+      <c r="F59">
+        <v>0.97659783775984166</v>
+      </c>
+      <c r="G59">
+        <v>0.01751854724437775</v>
+      </c>
+      <c r="H59">
+        <v>0.0030229716173408366</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B60">
+        <v>1.2128578239279029e-05</v>
+      </c>
+      <c r="C60">
+        <v>0.00029145914817592806</v>
+      </c>
+      <c r="D60">
+        <v>0.0076261542346149113</v>
+      </c>
+      <c r="E60">
+        <v>0.0051932110655319311</v>
+      </c>
+      <c r="F60">
+        <v>0.98045592124001046</v>
+      </c>
+      <c r="G60">
+        <v>0.0062756657862540156</v>
+      </c>
+      <c r="H60">
+        <v>0.00014545994717347509</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B61">
+        <v>0.00057856359597337366</v>
+      </c>
+      <c r="C61">
+        <v>0.02736466783046277</v>
+      </c>
+      <c r="D61">
+        <v>0.0015373484338292614</v>
+      </c>
+      <c r="E61">
+        <v>0.004934329372227042</v>
+      </c>
+      <c r="F61">
+        <v>0.47021327301541399</v>
+      </c>
+      <c r="G61">
+        <v>0.16986946898701011</v>
+      </c>
+      <c r="H61">
+        <v>0.32550234876508338</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B62">
+        <v>0.00038774864158682608</v>
+      </c>
+      <c r="C62">
+        <v>1.3956969508538814e-06</v>
+      </c>
+      <c r="D62">
+        <v>7.7535213092910707e-06</v>
+      </c>
+      <c r="E62">
+        <v>0.0017424270450450696</v>
+      </c>
+      <c r="F62">
+        <v>0.99535337086314979</v>
+      </c>
+      <c r="G62">
+        <v>5.405800872496366e-05</v>
+      </c>
+      <c r="H62">
+        <v>0.0024532462232330896</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B63">
+        <v>0.17985801913936142</v>
+      </c>
+      <c r="C63">
+        <v>0.00098604654415903421</v>
+      </c>
+      <c r="D63">
+        <v>0.065963240124289502</v>
+      </c>
+      <c r="E63">
+        <v>0.059743393489518862</v>
+      </c>
+      <c r="F63">
+        <v>0.48183419120134885</v>
+      </c>
+      <c r="G63">
+        <v>0.18959437141472624</v>
+      </c>
+      <c r="H63">
+        <v>0.022020738086595982</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B64">
+        <v>3.5519537134960571e-05</v>
+      </c>
+      <c r="C64">
+        <v>1.8010691181211105e-06</v>
+      </c>
+      <c r="D64">
+        <v>8.3517836729870917e-05</v>
+      </c>
+      <c r="E64">
+        <v>0.0011502197471055188</v>
+      </c>
+      <c r="F64">
+        <v>0.99727147046816988</v>
+      </c>
+      <c r="G64">
+        <v>5.4446827462769528e-05</v>
+      </c>
+      <c r="H64">
+        <v>0.0014030245142788757</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B65">
+        <v>0.0079669967196628992</v>
+      </c>
+      <c r="C65">
+        <v>3.3097122803303569e-05</v>
+      </c>
+      <c r="D65">
+        <v>0.014511243453659516</v>
+      </c>
+      <c r="E65">
+        <v>0.0023172853509454711</v>
+      </c>
+      <c r="F65">
+        <v>0.94672342213924066</v>
+      </c>
+      <c r="G65">
+        <v>0.019610231451144287</v>
+      </c>
+      <c r="H65">
+        <v>0.0088377237625437647</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B66">
+        <v>1.6271442676910015e-05</v>
+      </c>
+      <c r="C66">
+        <v>9.5695768166770169e-07</v>
+      </c>
+      <c r="D66">
+        <v>1.2098650976069555e-05</v>
+      </c>
+      <c r="E66">
+        <v>0.0023130895298525325</v>
+      </c>
+      <c r="F66">
+        <v>0.99518202038343295</v>
+      </c>
+      <c r="G66">
+        <v>1.0687964310574757e-05</v>
+      </c>
+      <c r="H66">
+        <v>0.002464875071069413</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B67">
+        <v>3.4640776754154297e-05</v>
+      </c>
+      <c r="C67">
+        <v>1.1340477332057606e-05</v>
+      </c>
+      <c r="D67">
+        <v>1.622468768455205e-05</v>
+      </c>
+      <c r="E67">
+        <v>0.002740743016244438</v>
+      </c>
+      <c r="F67">
+        <v>0.99588386703117304</v>
+      </c>
+      <c r="G67">
+        <v>5.1867660637659923e-05</v>
+      </c>
+      <c r="H67">
+        <v>0.0012613163501740009</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B68">
+        <v>6.0887943887878016e-05</v>
+      </c>
+      <c r="C68">
+        <v>2.1839073417596321e-06</v>
+      </c>
+      <c r="D68">
+        <v>0.0016699510712343613</v>
+      </c>
+      <c r="E68">
+        <v>0.0011651814340365198</v>
+      </c>
+      <c r="F68">
+        <v>0.99606554184489127</v>
+      </c>
+      <c r="G68">
+        <v>5.7387515675687649e-05</v>
+      </c>
+      <c r="H68">
+        <v>0.00097886628293249785</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B69">
+        <v>0.00092811421376586933</v>
+      </c>
+      <c r="C69">
+        <v>4.6670656377304978e-05</v>
+      </c>
+      <c r="D69">
+        <v>0.00039817356281784196</v>
+      </c>
+      <c r="E69">
+        <v>0.00057271240093027874</v>
+      </c>
+      <c r="F69">
+        <v>0.99663932361736529</v>
+      </c>
+      <c r="G69">
+        <v>0.00056809765438747936</v>
+      </c>
+      <c r="H69">
+        <v>0.00084690789435588291</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B70">
+        <v>0.003681308472762664</v>
+      </c>
+      <c r="C70">
+        <v>1.0033784901735665e-06</v>
+      </c>
+      <c r="D70">
+        <v>0.00040596303541790696</v>
+      </c>
+      <c r="E70">
+        <v>0.002777657718126365</v>
+      </c>
+      <c r="F70">
+        <v>0.99236847296035935</v>
+      </c>
+      <c r="G70">
+        <v>9.445804597124322e-05</v>
+      </c>
+      <c r="H70">
+        <v>0.000671136388872208</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B71">
+        <v>0.10369183982002862</v>
+      </c>
+      <c r="C71">
+        <v>0.070789404081438134</v>
+      </c>
+      <c r="D71">
+        <v>0.14277008533626018</v>
+      </c>
+      <c r="E71">
+        <v>0.040451344047171878</v>
+      </c>
+      <c r="F71">
+        <v>0.16510420855762151</v>
+      </c>
+      <c r="G71">
+        <v>0.37641353665840344</v>
+      </c>
+      <c r="H71">
+        <v>0.10077958149907625</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B72">
+        <v>2.5975855678626873e-05</v>
+      </c>
+      <c r="C72">
+        <v>7.296957946188589e-05</v>
+      </c>
+      <c r="D72">
+        <v>6.1439372378972024e-05</v>
+      </c>
+      <c r="E72">
+        <v>0.00076968723701050358</v>
+      </c>
+      <c r="F72">
+        <v>0.99494601626065782</v>
+      </c>
+      <c r="G72">
+        <v>0.00019319730716748558</v>
+      </c>
+      <c r="H72">
+        <v>0.0039307143876447341</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B73">
+        <v>0.006459304632129975</v>
+      </c>
+      <c r="C73">
+        <v>0.017205717758182307</v>
+      </c>
+      <c r="D73">
+        <v>8.5839969300695287e-06</v>
+      </c>
+      <c r="E73">
+        <v>0.0015306013200079246</v>
+      </c>
+      <c r="F73">
+        <v>0.90505069446454511</v>
+      </c>
+      <c r="G73">
+        <v>0.06815942729571646</v>
+      </c>
+      <c r="H73">
+        <v>0.0015856705324881883</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B74">
+        <v>0.00049697176637396355</v>
+      </c>
+      <c r="C74">
+        <v>0.00041181364247343873</v>
+      </c>
+      <c r="D74">
+        <v>0.0023943362152397496</v>
+      </c>
+      <c r="E74">
+        <v>0.001456328386368993</v>
+      </c>
+      <c r="F74">
+        <v>0.96767192377936373</v>
+      </c>
+      <c r="G74">
+        <v>0.008985059705594366</v>
+      </c>
+      <c r="H74">
+        <v>0.018583566504585737</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B75">
+        <v>0.0012052883687369686</v>
+      </c>
+      <c r="C75">
+        <v>0.00015911560920738607</v>
+      </c>
+      <c r="D75">
+        <v>0.00025731521501164118</v>
+      </c>
+      <c r="E75">
+        <v>0.00039996957311131309</v>
+      </c>
+      <c r="F75">
+        <v>0.96876900213434358</v>
+      </c>
+      <c r="G75">
+        <v>0.011108245886918142</v>
+      </c>
+      <c r="H75">
+        <v>0.018101063212670972</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B76">
+        <v>5.4829539119820822e-06</v>
+      </c>
+      <c r="C76">
+        <v>6.7139126414751993e-05</v>
+      </c>
+      <c r="D76">
+        <v>0.0043054189921638035</v>
+      </c>
+      <c r="E76">
+        <v>0.0062963086909089971</v>
+      </c>
+      <c r="F76">
+        <v>0.98332759881827014</v>
+      </c>
+      <c r="G76">
+        <v>4.4946256272493901e-05</v>
+      </c>
+      <c r="H76">
+        <v>0.0059531051620579124</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B77">
+        <v>1.816262576577337e-05</v>
+      </c>
+      <c r="C77">
+        <v>4.92149427449667e-05</v>
+      </c>
+      <c r="D77">
+        <v>0.00034099193003023475</v>
+      </c>
+      <c r="E77">
+        <v>0.0005298344398515872</v>
+      </c>
+      <c r="F77">
+        <v>0.99052440486370963</v>
+      </c>
+      <c r="G77">
+        <v>0.0012141844729254715</v>
+      </c>
+      <c r="H77">
+        <v>0.0073232067249724636</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B78">
+        <v>7.3277782744391544e-05</v>
+      </c>
+      <c r="C78">
+        <v>0.00091923314093480158</v>
+      </c>
+      <c r="D78">
+        <v>3.8643356517351559e-05</v>
+      </c>
+      <c r="E78">
+        <v>0.00032504364626129829</v>
+      </c>
+      <c r="F78">
+        <v>0.91220560882048052</v>
+      </c>
+      <c r="G78">
+        <v>0.080357102487111212</v>
+      </c>
+      <c r="H78">
+        <v>0.0060810907659505399</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B79">
+        <v>7.2538094512391364e-05</v>
+      </c>
+      <c r="C79">
+        <v>0.00034796986505018296</v>
+      </c>
+      <c r="D79">
+        <v>0.0054585010432374632</v>
+      </c>
+      <c r="E79">
+        <v>0.00093893538507984747</v>
+      </c>
+      <c r="F79">
+        <v>0.94182808509397442</v>
+      </c>
+      <c r="G79">
+        <v>0.043512548240425615</v>
+      </c>
+      <c r="H79">
+        <v>0.0078414222777200091</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B80">
+        <v>7.936153417745413e-06</v>
+      </c>
+      <c r="C80">
+        <v>4.9194192444481287e-05</v>
+      </c>
+      <c r="D80">
+        <v>0.00022957469440490927</v>
+      </c>
+      <c r="E80">
+        <v>0.0019848091121716549</v>
+      </c>
+      <c r="F80">
+        <v>0.99521561983197482</v>
+      </c>
+      <c r="G80">
+        <v>0.00016566701951941729</v>
+      </c>
+      <c r="H80">
+        <v>0.0023471989960669676</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B81">
+        <v>0.00012106360135521321</v>
+      </c>
+      <c r="C81">
+        <v>7.46260708041604e-05</v>
+      </c>
+      <c r="D81">
+        <v>0.00012903842705843348</v>
+      </c>
+      <c r="E81">
+        <v>0.00011683805493925534</v>
+      </c>
+      <c r="F81">
+        <v>1.5059387968913765e-10</v>
+      </c>
+      <c r="G81">
+        <v>0.97778964135704594</v>
+      </c>
+      <c r="H81">
+        <v>0.021768792338203089</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B82">
+        <v>0.01064026910471777</v>
+      </c>
+      <c r="C82">
+        <v>1.9748521188040572e-05</v>
+      </c>
+      <c r="D82">
+        <v>6.5235786243323493e-07</v>
+      </c>
+      <c r="E82">
+        <v>2.4554817377969337e-06</v>
+      </c>
+      <c r="F82">
+        <v>6.3241076334330113e-09</v>
+      </c>
+      <c r="G82">
+        <v>0.98437334168187474</v>
+      </c>
+      <c r="H82">
+        <v>0.0049635265285116505</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B83">
+        <v>0.00016600547718839402</v>
+      </c>
+      <c r="C83">
+        <v>0.00029134732998534017</v>
+      </c>
+      <c r="D83">
+        <v>0.0067916180464257783</v>
+      </c>
+      <c r="E83">
+        <v>0.0015151370264049489</v>
+      </c>
+      <c r="F83">
+        <v>2.901876295243988e-10</v>
+      </c>
+      <c r="G83">
+        <v>0.86960229736550709</v>
+      </c>
+      <c r="H83">
+        <v>0.12163359446430078</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B84">
+        <v>0.00041301297226277152</v>
+      </c>
+      <c r="C84">
+        <v>0.0027662111574681338</v>
+      </c>
+      <c r="D84">
+        <v>0.0001140242703249071</v>
+      </c>
+      <c r="E84">
+        <v>0.0048804597717086234</v>
+      </c>
+      <c r="F84">
+        <v>4.0778198826876141e-05</v>
+      </c>
+      <c r="G84">
+        <v>0.53542374860509112</v>
+      </c>
+      <c r="H84">
+        <v>0.45636176502431752</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B85">
+        <v>0.0017539195926905128</v>
+      </c>
+      <c r="C85">
+        <v>0.0069397561127278002</v>
+      </c>
+      <c r="D85">
+        <v>1.8495115331915031e-07</v>
+      </c>
+      <c r="E85">
+        <v>0.00055321548977459308</v>
+      </c>
+      <c r="F85">
+        <v>0.00012109935752064314</v>
+      </c>
+      <c r="G85">
+        <v>0.9612744318593528</v>
+      </c>
+      <c r="H85">
+        <v>0.029357392636780368</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B86">
+        <v>7.6032659337377223e-05</v>
+      </c>
+      <c r="C86">
+        <v>0.00012259492295434472</v>
+      </c>
+      <c r="D86">
+        <v>0.00013695129902441714</v>
+      </c>
+      <c r="E86">
+        <v>0.0012261218115335851</v>
+      </c>
+      <c r="F86">
+        <v>7.2244448745321501e-08</v>
+      </c>
+      <c r="G86">
+        <v>0.56802536094045497</v>
+      </c>
+      <c r="H86">
+        <v>0.43041286612224655</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87">
+        <v>0.54838468057643441</v>
+      </c>
+      <c r="C87">
+        <v>2.3956937930011558e-08</v>
+      </c>
+      <c r="D87">
+        <v>1.7899557440269167e-08</v>
+      </c>
+      <c r="E87">
+        <v>2.2968317779378978e-10</v>
+      </c>
+      <c r="F87">
+        <v>5.9266223218778191e-09</v>
+      </c>
+      <c r="G87">
+        <v>0.45026437884190579</v>
+      </c>
+      <c r="H87">
+        <v>0.0013508925688590489</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B88">
+        <v>0.015329779909888737</v>
+      </c>
+      <c r="C88">
+        <v>0.00034122959847145357</v>
+      </c>
+      <c r="D88">
+        <v>3.3136447675959993e-06</v>
+      </c>
+      <c r="E88">
+        <v>3.5216778107524252e-06</v>
+      </c>
+      <c r="F88">
+        <v>3.3543648394732307e-07</v>
+      </c>
+      <c r="G88">
+        <v>0.96022219677913645</v>
+      </c>
+      <c r="H88">
+        <v>0.02409962295344107</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B89">
+        <v>0.0029877023611173201</v>
+      </c>
+      <c r="C89">
+        <v>0.08863680694848533</v>
+      </c>
+      <c r="D89">
+        <v>9.923318616769253e-07</v>
+      </c>
+      <c r="E89">
+        <v>0.0037372710281964533</v>
+      </c>
+      <c r="F89">
+        <v>1.0631670742012868e-06</v>
+      </c>
+      <c r="G89">
+        <v>0.44533943793747444</v>
+      </c>
+      <c r="H89">
+        <v>0.4592967262257906</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B90">
+        <v>0.013208163215579509</v>
+      </c>
+      <c r="C90">
+        <v>0.46912054431633421</v>
+      </c>
+      <c r="D90">
+        <v>0.00013095163642924692</v>
+      </c>
+      <c r="E90">
+        <v>0.077949192744473983</v>
+      </c>
+      <c r="F90">
+        <v>1.8997237962384856e-06</v>
+      </c>
+      <c r="G90">
+        <v>0.03235702325516461</v>
+      </c>
+      <c r="H90">
+        <v>0.4072322251082221</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B91">
+        <v>0.0009216970450899079</v>
+      </c>
+      <c r="C91">
+        <v>0.00011825762449138073</v>
+      </c>
+      <c r="D91">
+        <v>0.0069255247152734383</v>
+      </c>
+      <c r="E91">
+        <v>0.00032136855811960667</v>
+      </c>
+      <c r="F91">
+        <v>1.2276920102379711e-10</v>
+      </c>
+      <c r="G91">
+        <v>0.96631678012632305</v>
+      </c>
+      <c r="H91">
+        <v>0.025396371807933374</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B92">
+        <v>0.00048410557602496994</v>
+      </c>
+      <c r="C92">
+        <v>0.001322659161369839</v>
+      </c>
+      <c r="D92">
+        <v>0.00016471810307975093</v>
+      </c>
+      <c r="E92">
+        <v>0.0011614026746515379</v>
+      </c>
+      <c r="F92">
+        <v>1.0736609296149232e-05</v>
+      </c>
+      <c r="G92">
+        <v>0.95180585899586545</v>
+      </c>
+      <c r="H92">
+        <v>0.045050518879712204</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B93">
+        <v>0.00020378170120624345</v>
+      </c>
+      <c r="C93">
+        <v>0.00041265888016089251</v>
+      </c>
+      <c r="D93">
+        <v>0.00044699254118412503</v>
+      </c>
+      <c r="E93">
+        <v>0.0003915996972274513</v>
+      </c>
+      <c r="F93">
+        <v>3.37982509412007e-10</v>
+      </c>
+      <c r="G93">
+        <v>0.89269967764295621</v>
+      </c>
+      <c r="H93">
+        <v>0.10584528919928257</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B94">
+        <v>0.0015006430033608874</v>
+      </c>
+      <c r="C94">
+        <v>4.3208412440184609e-05</v>
+      </c>
+      <c r="D94">
+        <v>0.0015618957984072602</v>
+      </c>
+      <c r="E94">
+        <v>2.0353007982329278e-05</v>
+      </c>
+      <c r="F94">
+        <v>3.4257255805443751e-09</v>
+      </c>
+      <c r="G94">
+        <v>0.99302072542819453</v>
+      </c>
+      <c r="H94">
+        <v>0.0038531709238892537</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B95">
+        <v>0.0002424875257752842</v>
+      </c>
+      <c r="C95">
+        <v>0.0086350263377556434</v>
+      </c>
+      <c r="D95">
+        <v>5.4421829966807357e-05</v>
+      </c>
+      <c r="E95">
+        <v>0.0016527921148448779</v>
+      </c>
+      <c r="F95">
+        <v>2.2026428065087868e-06</v>
+      </c>
+      <c r="G95">
+        <v>0.651693850424787</v>
+      </c>
+      <c r="H95">
+        <v>0.33771921912406377</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B96">
+        <v>0.00011100621356855885</v>
+      </c>
+      <c r="C96">
+        <v>0.00068973385854432623</v>
+      </c>
+      <c r="D96">
+        <v>4.8430150326734637e-05</v>
+      </c>
+      <c r="E96">
+        <v>0.00073859868085816719</v>
+      </c>
+      <c r="F96">
+        <v>3.2762111649544015e-07</v>
+      </c>
+      <c r="G96">
+        <v>0.85230113904080229</v>
+      </c>
+      <c r="H96">
+        <v>0.14611076443478349</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B97">
+        <v>0.00076135524484918294</v>
+      </c>
+      <c r="C97">
+        <v>0.0042148435961261253</v>
+      </c>
+      <c r="D97">
+        <v>0.0035286389565743152</v>
+      </c>
+      <c r="E97">
+        <v>0.0017323713646730794</v>
+      </c>
+      <c r="F97">
+        <v>2.2780850560379672e-06</v>
+      </c>
+      <c r="G97">
+        <v>0.87039937702539716</v>
+      </c>
+      <c r="H97">
+        <v>0.11936113572732404</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B98">
+        <v>0.00041270014428532143</v>
+      </c>
+      <c r="C98">
+        <v>0.0010318560652710306</v>
+      </c>
+      <c r="D98">
+        <v>1.4821179422902939e-05</v>
+      </c>
+      <c r="E98">
+        <v>0.00083776076482270962</v>
+      </c>
+      <c r="F98">
+        <v>8.2583893287849495e-06</v>
+      </c>
+      <c r="G98">
+        <v>0.97749107408587732</v>
+      </c>
+      <c r="H98">
+        <v>0.020203529370991818</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B99">
+        <v>0.0003722380875206956</v>
+      </c>
+      <c r="C99">
+        <v>0.0051307371987379148</v>
+      </c>
+      <c r="D99">
+        <v>0.0001861380442927092</v>
+      </c>
+      <c r="E99">
+        <v>0.0013343219015257688</v>
+      </c>
+      <c r="F99">
+        <v>1.788891902636574e-06</v>
+      </c>
+      <c r="G99">
+        <v>0.76909534172411742</v>
+      </c>
+      <c r="H99">
+        <v>0.22387943415190287</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B100">
+        <v>0.00033549709191688863</v>
+      </c>
+      <c r="C100">
+        <v>0.0021793662386611801</v>
+      </c>
+      <c r="D100">
+        <v>0.00022936180685752025</v>
+      </c>
+      <c r="E100">
+        <v>0.0015227632499431008</v>
+      </c>
+      <c r="F100">
+        <v>4.4494917078471778e-06</v>
+      </c>
+      <c r="G100">
+        <v>0.78961547212900962</v>
+      </c>
+      <c r="H100">
+        <v>0.20611308999190375</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B101">
+        <v>0.00024111009252620512</v>
+      </c>
+      <c r="C101">
+        <v>0.010924708484213369</v>
+      </c>
+      <c r="D101">
+        <v>3.9372060059101235e-05</v>
+      </c>
+      <c r="E101">
+        <v>0.0019316966356555298</v>
+      </c>
+      <c r="F101">
+        <v>3.1302686148093711e-06</v>
+      </c>
+      <c r="G101">
+        <v>0.11939754773807433</v>
+      </c>
+      <c r="H101">
+        <v>0.8674624347208566</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B102">
+        <v>0.00061489078269988363</v>
+      </c>
+      <c r="C102">
+        <v>0.00041063047909382444</v>
+      </c>
+      <c r="D102">
+        <v>7.3855927487161998e-06</v>
+      </c>
+      <c r="E102">
+        <v>0.00039806572058032899</v>
+      </c>
+      <c r="F102">
+        <v>4.8969799389491462e-05</v>
+      </c>
+      <c r="G102">
+        <v>0.60044749682518517</v>
+      </c>
+      <c r="H102">
+        <v>0.39807256080030257</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103">
+        <v>0.0010200551095032782</v>
+      </c>
+      <c r="C103">
+        <v>0.411752939890553</v>
+      </c>
+      <c r="D103">
+        <v>4.3562493485265442e-05</v>
+      </c>
+      <c r="E103">
+        <v>0.0031114705999890193</v>
+      </c>
+      <c r="F103">
+        <v>3.3729302557234835e-05</v>
+      </c>
+      <c r="G103">
+        <v>0.49419203690204044</v>
+      </c>
+      <c r="H103">
+        <v>0.08984620570187174</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B104">
+        <v>0.0017744538517845574</v>
+      </c>
+      <c r="C104">
+        <v>0.18725247936835682</v>
+      </c>
+      <c r="D104">
+        <v>7.9690434393250446e-05</v>
+      </c>
+      <c r="E104">
+        <v>0.034920550307551514</v>
+      </c>
+      <c r="F104">
+        <v>0.017321823062067542</v>
+      </c>
+      <c r="G104">
+        <v>0.20603974835903285</v>
+      </c>
+      <c r="H104">
+        <v>0.55261125461681349</v>
+      </c>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B105">
+        <v>0.00028488079865455519</v>
+      </c>
+      <c r="C105">
+        <v>0.0083340548703135352</v>
+      </c>
+      <c r="D105">
+        <v>0.00021281571002761202</v>
+      </c>
+      <c r="E105">
+        <v>0.00288889856911462</v>
+      </c>
+      <c r="F105">
+        <v>1.6198119797733121e-05</v>
+      </c>
+      <c r="G105">
+        <v>0.12838424753953867</v>
+      </c>
+      <c r="H105">
+        <v>0.85987890439255332</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B106">
+        <v>0.00059591125475087097</v>
+      </c>
+      <c r="C106">
+        <v>0.098575085431415466</v>
+      </c>
+      <c r="D106">
+        <v>2.2943282563237576e-05</v>
+      </c>
+      <c r="E106">
+        <v>0.0026191608558073392</v>
+      </c>
+      <c r="F106">
+        <v>8.4412897330138455e-06</v>
+      </c>
+      <c r="G106">
+        <v>0.078260555696279654</v>
+      </c>
+      <c r="H106">
+        <v>0.81991790218945038</v>
+      </c>
+      <c r="I106">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107">
+        <v>0.0010612378045133026</v>
+      </c>
+      <c r="C107">
+        <v>0.0040102846517929792</v>
+      </c>
+      <c r="D107">
+        <v>1.7875184684171413e-05</v>
+      </c>
+      <c r="E107">
+        <v>0.083231349362887563</v>
+      </c>
+      <c r="F107">
+        <v>0.00018231199879511551</v>
+      </c>
+      <c r="G107">
+        <v>0.17523947860671429</v>
+      </c>
+      <c r="H107">
+        <v>0.73625746239061263</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B108">
+        <v>0.0006238811059873869</v>
+      </c>
+      <c r="C108">
+        <v>0.0012226212310157689</v>
+      </c>
+      <c r="D108">
+        <v>4.2105898958988217e-06</v>
+      </c>
+      <c r="E108">
+        <v>0.0017521511378724415</v>
+      </c>
+      <c r="F108">
+        <v>2.1976676359378613e-06</v>
+      </c>
+      <c r="G108">
+        <v>0.13740945334150956</v>
+      </c>
+      <c r="H108">
+        <v>0.85898548492608306</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B109">
+        <v>0.00023164025676444168</v>
+      </c>
+      <c r="C109">
+        <v>0.00020163499298321561</v>
+      </c>
+      <c r="D109">
+        <v>2.3266343932708146e-07</v>
+      </c>
+      <c r="E109">
+        <v>0.011051091158049966</v>
+      </c>
+      <c r="F109">
+        <v>2.1002854279031826e-07</v>
+      </c>
+      <c r="G109">
+        <v>0.072973883041667048</v>
+      </c>
+      <c r="H109">
+        <v>0.91554130785855314</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B110">
+        <v>0.00046570908609010626</v>
+      </c>
+      <c r="C110">
+        <v>0.0012789530924872076</v>
+      </c>
+      <c r="D110">
+        <v>1.9799907792506525e-06</v>
+      </c>
+      <c r="E110">
+        <v>0.014506014211840638</v>
+      </c>
+      <c r="F110">
+        <v>3.0963677858900089e-06</v>
+      </c>
+      <c r="G110">
+        <v>0.019096206985163101</v>
+      </c>
+      <c r="H110">
+        <v>0.96464804026585371</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111">
+        <v>0.00010654092872536314</v>
+      </c>
+      <c r="C111">
+        <v>0.00038553627249976263</v>
+      </c>
+      <c r="D111">
+        <v>1.4534918539953865e-06</v>
+      </c>
+      <c r="E111">
+        <v>0.00053779194590747792</v>
+      </c>
+      <c r="F111">
+        <v>2.9429841061110964e-07</v>
+      </c>
+      <c r="G111">
+        <v>0.14517765591190673</v>
+      </c>
+      <c r="H111">
+        <v>0.85379072715069604</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B112">
+        <v>6.6512245694532105e-05</v>
+      </c>
+      <c r="C112">
+        <v>0.00060958836498928412</v>
+      </c>
+      <c r="D112">
+        <v>3.5840841479186051e-07</v>
+      </c>
+      <c r="E112">
+        <v>0.00080156264583689603</v>
+      </c>
+      <c r="F112">
+        <v>1.7099994609771155e-07</v>
+      </c>
+      <c r="G112">
+        <v>0.15110611039774191</v>
+      </c>
+      <c r="H112">
+        <v>0.84741569693737639</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113">
+        <v>0.0032233994520392425</v>
+      </c>
+      <c r="C113">
+        <v>0.15456988364009999</v>
+      </c>
+      <c r="D113">
+        <v>5.571422373939071e-07</v>
+      </c>
+      <c r="E113">
+        <v>0.0023658644481367691</v>
+      </c>
+      <c r="F113">
+        <v>7.8922478069510524e-06</v>
+      </c>
+      <c r="G113">
+        <v>0.037679512056588337</v>
+      </c>
+      <c r="H113">
+        <v>0.80215289101309117</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114">
+        <v>0.00051653216896555682</v>
+      </c>
+      <c r="C114">
+        <v>0.0043049872293500569</v>
+      </c>
+      <c r="D114">
+        <v>3.3651793661164495e-09</v>
+      </c>
+      <c r="E114">
+        <v>0.033320972409862072</v>
+      </c>
+      <c r="F114">
+        <v>4.4804823470129487e-06</v>
+      </c>
+      <c r="G114">
+        <v>0.042450800696103491</v>
+      </c>
+      <c r="H114">
+        <v>0.91940222364819235</v>
+      </c>
+      <c r="I114">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115">
+        <v>0.00049098457824297095</v>
+      </c>
+      <c r="C115">
+        <v>0.0088785203335174871</v>
+      </c>
+      <c r="D115">
+        <v>4.3014045484224099e-05</v>
+      </c>
+      <c r="E115">
+        <v>0.0051121892651910779</v>
+      </c>
+      <c r="F115">
+        <v>4.1437731891512039e-06</v>
+      </c>
+      <c r="G115">
+        <v>0.32187269826061277</v>
+      </c>
+      <c r="H115">
+        <v>0.66359844974376236</v>
+      </c>
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B116">
+        <v>0.00035969285137847911</v>
+      </c>
+      <c r="C116">
+        <v>0.020209737192047956</v>
+      </c>
+      <c r="D116">
+        <v>1.0577036320112605e-05</v>
+      </c>
+      <c r="E116">
+        <v>0.0031716175210363289</v>
+      </c>
+      <c r="F116">
+        <v>5.8457406235486784e-05</v>
+      </c>
+      <c r="G116">
+        <v>0.083226341034432036</v>
+      </c>
+      <c r="H116">
+        <v>0.89296357695854967</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B117">
+        <v>0.0001386320596247772</v>
+      </c>
+      <c r="C117">
+        <v>0.00074722717105918824</v>
+      </c>
+      <c r="D117">
+        <v>4.5300237042126579e-05</v>
+      </c>
+      <c r="E117">
+        <v>0.00083530066642180574</v>
+      </c>
+      <c r="F117">
+        <v>1.1456740194358567e-06</v>
+      </c>
+      <c r="G117">
+        <v>0.27549545233983125</v>
+      </c>
+      <c r="H117">
+        <v>0.72273694185200132</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B118">
+        <v>0.00015370463677594188</v>
+      </c>
+      <c r="C118">
+        <v>0.0059774784026087671</v>
+      </c>
+      <c r="D118">
+        <v>6.5250202670455722e-06</v>
+      </c>
+      <c r="E118">
+        <v>0.002682180096406612</v>
+      </c>
+      <c r="F118">
+        <v>1.5841669916410705e-07</v>
+      </c>
+      <c r="G118">
+        <v>0.17017491330651274</v>
+      </c>
+      <c r="H118">
+        <v>0.82100504012072972</v>
+      </c>
+      <c r="I118">
+        <v>7</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B119">
+        <v>0.00050850199836321693</v>
+      </c>
+      <c r="C119">
+        <v>0.13511979386360648</v>
+      </c>
+      <c r="D119">
+        <v>1.642883403841118e-05</v>
+      </c>
+      <c r="E119">
+        <v>0.0021409059448166167</v>
+      </c>
+      <c r="F119">
+        <v>1.6705192951190932e-07</v>
+      </c>
+      <c r="G119">
+        <v>0.0078337800081517452</v>
+      </c>
+      <c r="H119">
+        <v>0.85438042229909394</v>
+      </c>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B120">
+        <v>0.026291472347315267</v>
+      </c>
+      <c r="C120">
+        <v>0.0067750845335609001</v>
+      </c>
+      <c r="D120">
+        <v>5.2518159252288229e-08</v>
+      </c>
+      <c r="E120">
+        <v>0.010850398442274187</v>
+      </c>
+      <c r="F120">
+        <v>5.2469153300003655e-07</v>
+      </c>
+      <c r="G120">
+        <v>0.01178856880616681</v>
+      </c>
+      <c r="H120">
+        <v>0.94429389866099056</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B121">
+        <v>0.00072141334257885402</v>
+      </c>
+      <c r="C121">
+        <v>0.013749006467193063</v>
+      </c>
+      <c r="D121">
+        <v>4.5489544099486702e-05</v>
+      </c>
+      <c r="E121">
+        <v>0.034923499910028487</v>
+      </c>
+      <c r="F121">
+        <v>4.208053456215029e-09</v>
+      </c>
+      <c r="G121">
+        <v>0.003636624153948101</v>
+      </c>
+      <c r="H121">
+        <v>0.94692396237409859</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B122">
+        <v>0.00043298427795263934</v>
+      </c>
+      <c r="C122">
+        <v>0.075980978983767003</v>
+      </c>
+      <c r="D122">
+        <v>0.00026994434698254918</v>
+      </c>
+      <c r="E122">
+        <v>0.0026051365730545496</v>
+      </c>
+      <c r="F122">
+        <v>0.00012903893770065591</v>
+      </c>
+      <c r="G122">
+        <v>0.031592012676163864</v>
+      </c>
+      <c r="H122">
+        <v>0.88898990420437884</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123">
+        <v>0.00040011020822661815</v>
+      </c>
+      <c r="C123">
+        <v>0.0078409523242422181</v>
+      </c>
+      <c r="D123">
+        <v>0.00015998725349730648</v>
+      </c>
+      <c r="E123">
+        <v>0.0066614339672390853</v>
+      </c>
+      <c r="F123">
+        <v>1.7692027781409419e-05</v>
+      </c>
+      <c r="G123">
+        <v>0.050321425336291921</v>
+      </c>
+      <c r="H123">
+        <v>0.93459839888272145</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B124">
+        <v>0.021446446400075394</v>
+      </c>
+      <c r="C124">
+        <v>0.034736967542613531</v>
+      </c>
+      <c r="D124">
+        <v>7.5306455117263299e-06</v>
+      </c>
+      <c r="E124">
+        <v>0.07189739301470166</v>
+      </c>
+      <c r="F124">
+        <v>0.0001062945196823837</v>
+      </c>
+      <c r="G124">
+        <v>0.096073848148793842</v>
+      </c>
+      <c r="H124">
+        <v>0.77573151972862142</v>
+      </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B125">
+        <v>0.00044526021631651543</v>
+      </c>
+      <c r="C125">
+        <v>0.011824801158265818</v>
+      </c>
+      <c r="D125">
+        <v>1.0209324352499237e-05</v>
+      </c>
+      <c r="E125">
+        <v>0.0046341412860031461</v>
+      </c>
+      <c r="F125">
+        <v>3.5328779556511742e-06</v>
+      </c>
+      <c r="G125">
+        <v>0.14168028126824114</v>
+      </c>
+      <c r="H125">
+        <v>0.84140177386886517</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B126">
+        <v>0.00036233832389171404</v>
+      </c>
+      <c r="C126">
+        <v>0.073791191037780521</v>
+      </c>
+      <c r="D126">
+        <v>7.4228859663047584e-05</v>
+      </c>
+      <c r="E126">
+        <v>0.0011618848209331786</v>
+      </c>
+      <c r="F126">
+        <v>9.1120751613400655e-07</v>
+      </c>
+      <c r="G126">
+        <v>0.031999792081998775</v>
+      </c>
+      <c r="H126">
+        <v>0.89260965366821665</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B127">
+        <v>0.01696896856896454</v>
+      </c>
+      <c r="C127">
+        <v>0.067970136502523315</v>
+      </c>
+      <c r="D127">
+        <v>0.10494692144295212</v>
+      </c>
+      <c r="E127">
+        <v>0.53342833484279839</v>
+      </c>
+      <c r="F127">
+        <v>1.2900459664480185e-08</v>
+      </c>
+      <c r="G127">
+        <v>0.055106385657351944</v>
+      </c>
+      <c r="H127">
+        <v>0.22157924008495003</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>